--- a/Excel/Processed_Circle_test.xlsx
+++ b/Excel/Processed_Circle_test.xlsx
@@ -561,7 +561,9 @@
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="n">
+        <v>1058.9</v>
+      </c>
       <c r="C2" s="3" t="n">
         <v>648.51</v>
       </c>
@@ -592,41 +594,69 @@
       <c r="L2" s="3" t="n">
         <v>979.24</v>
       </c>
-      <c r="M2" s="3" t="inlineStr"/>
-      <c r="N2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="n">
+        <v>1506</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>309.53</v>
+      </c>
       <c r="O2" s="3" t="n">
         <v>680.76</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>1953.6</v>
       </c>
-      <c r="Q2" s="3" t="inlineStr"/>
-      <c r="R2" s="3" t="inlineStr"/>
-      <c r="S2" s="3" t="inlineStr"/>
+      <c r="Q2" s="3" t="n">
+        <v>732.01</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1795.3</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>232.19</v>
+      </c>
       <c r="T2" s="3" t="inlineStr"/>
-      <c r="U2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="n">
+        <v>3517.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="n">
+        <v>1076.9</v>
+      </c>
       <c r="C3" s="3" t="n">
         <v>649.64</v>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="n">
+        <v>346.01</v>
+      </c>
       <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1072.2</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1109</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>340.95</v>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="n">
+        <v>991.73</v>
+      </c>
       <c r="M3" s="3" t="n">
         <v>1499.8</v>
       </c>
-      <c r="N3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="n">
+        <v>315.9</v>
+      </c>
       <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="3" t="inlineStr"/>
       <c r="Q3" s="3" t="n">
@@ -723,28 +753,42 @@
       <c r="D5" s="3" t="n">
         <v>336.39</v>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="n">
+        <v>520.54</v>
+      </c>
       <c r="F5" s="3" t="n">
         <v>99.916</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1054.5</v>
       </c>
-      <c r="H5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="n">
+        <v>1088.5</v>
+      </c>
       <c r="I5" s="3" t="n">
         <v>336.19</v>
       </c>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="n">
+        <v>617.7</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>740.3200000000001</v>
+      </c>
       <c r="L5" s="3" t="n">
         <v>982.75</v>
       </c>
-      <c r="M5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="n">
+        <v>1474.4</v>
+      </c>
       <c r="N5" s="3" t="n">
         <v>313.17</v>
       </c>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="n">
+        <v>675.96</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>1929.3</v>
+      </c>
       <c r="Q5" s="3" t="n">
         <v>742.4400000000001</v>
       </c>
@@ -768,7 +812,9 @@
       <c r="B6" s="3" t="n">
         <v>1072.5</v>
       </c>
-      <c r="C6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="n">
+        <v>644.25</v>
+      </c>
       <c r="D6" s="3" t="n">
         <v>341.72</v>
       </c>
@@ -808,7 +854,9 @@
       <c r="P6" s="3" t="n">
         <v>1953.1</v>
       </c>
-      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="n">
+        <v>744.74</v>
+      </c>
       <c r="R6" s="3" t="n">
         <v>1778.7</v>
       </c>
@@ -816,7 +864,9 @@
         <v>235.77</v>
       </c>
       <c r="T6" s="3" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="n">
+        <v>3566.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
@@ -843,29 +893,43 @@
       <c r="H7" s="4" t="n">
         <v>1222.2</v>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="n">
+        <v>363.87</v>
+      </c>
       <c r="J7" s="4" t="n">
         <v>694.5</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>908.17</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="n">
+        <v>998.96</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1631.7</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>318.5</v>
+      </c>
       <c r="O7" s="4" t="n">
         <v>739.47</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>2161.4</v>
       </c>
-      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="n">
+        <v>708.24</v>
+      </c>
       <c r="R7" s="4" t="n">
         <v>1820.4</v>
       </c>
       <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="n">
+        <v>598.23</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3453.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
@@ -904,7 +968,9 @@
       <c r="L8" s="4" t="n">
         <v>992.45</v>
       </c>
-      <c r="M8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
+        <v>1637.7</v>
+      </c>
       <c r="N8" s="4" t="n">
         <v>316.13</v>
       </c>
@@ -999,18 +1065,26 @@
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="n">
+        <v>1147.3</v>
+      </c>
       <c r="C10" s="4" t="n">
         <v>696.35</v>
       </c>
       <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="n">
+        <v>560.95</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>116.79</v>
+      </c>
       <c r="G10" s="4" t="inlineStr"/>
       <c r="H10" s="4" t="n">
         <v>1222.3</v>
       </c>
-      <c r="I10" s="4" t="inlineStr"/>
+      <c r="I10" s="4" t="n">
+        <v>356.37</v>
+      </c>
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="4" t="inlineStr"/>
@@ -1020,11 +1094,19 @@
       <c r="N10" s="4" t="inlineStr"/>
       <c r="O10" s="4" t="inlineStr"/>
       <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
+      <c r="Q10" s="4" t="n">
+        <v>693.24</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>1805.3</v>
+      </c>
       <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="n">
+        <v>586.15</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>3357.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
@@ -1037,12 +1119,18 @@
       <c r="D11" s="4" t="n">
         <v>369.72</v>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="n">
+        <v>572.73</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>120.39</v>
+      </c>
       <c r="G11" s="4" t="n">
         <v>1146.2</v>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="n">
+        <v>1229.1</v>
+      </c>
       <c r="I11" s="4" t="n">
         <v>363.09</v>
       </c>
@@ -1053,7 +1141,9 @@
       <c r="L11" s="4" t="n">
         <v>995.96</v>
       </c>
-      <c r="M11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="n">
+        <v>1637.8</v>
+      </c>
       <c r="N11" s="4" t="n">
         <v>317.17</v>
       </c>
@@ -1066,7 +1156,9 @@
       <c r="Q11" s="4" t="n">
         <v>705.92</v>
       </c>
-      <c r="R11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="n">
+        <v>1822.4</v>
+      </c>
       <c r="S11" s="4" t="n">
         <v>222.93</v>
       </c>
@@ -1147,7 +1239,9 @@
       <c r="L13" s="3" t="n">
         <v>997.1900000000001</v>
       </c>
-      <c r="M13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="n">
+        <v>1675.1</v>
+      </c>
       <c r="N13" s="3" t="n">
         <v>317.6</v>
       </c>
@@ -1160,7 +1254,9 @@
       <c r="Q13" s="3" t="n">
         <v>696.4400000000001</v>
       </c>
-      <c r="R13" s="3" t="inlineStr"/>
+      <c r="R13" s="3" t="n">
+        <v>1811.7</v>
+      </c>
       <c r="S13" s="3" t="n">
         <v>221.8</v>
       </c>
@@ -1243,7 +1339,9 @@
       <c r="B15" s="3" t="n">
         <v>1240.9</v>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="n">
+        <v>714.83</v>
+      </c>
       <c r="D15" s="3" t="n">
         <v>391.23</v>
       </c>
@@ -1256,7 +1354,9 @@
       <c r="G15" s="3" t="n">
         <v>1203.3</v>
       </c>
-      <c r="H15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="n">
+        <v>1275</v>
+      </c>
       <c r="I15" s="3" t="n">
         <v>382.39</v>
       </c>
@@ -1269,7 +1369,9 @@
       <c r="L15" s="3" t="n">
         <v>1016.5</v>
       </c>
-      <c r="M15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="n">
+        <v>1691.8</v>
+      </c>
       <c r="N15" s="3" t="n">
         <v>324.09</v>
       </c>
@@ -1282,7 +1384,9 @@
       <c r="Q15" s="3" t="n">
         <v>712.54</v>
       </c>
-      <c r="R15" s="3" t="inlineStr"/>
+      <c r="R15" s="3" t="n">
+        <v>1837.3</v>
+      </c>
       <c r="S15" s="3" t="n">
         <v>224.98</v>
       </c>
@@ -1300,7 +1404,9 @@
       <c r="B16" s="3" t="n">
         <v>1213.5</v>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
+      <c r="C16" s="3" t="n">
+        <v>704.38</v>
+      </c>
       <c r="D16" s="3" t="n">
         <v>386.7</v>
       </c>
@@ -1313,7 +1419,9 @@
       <c r="G16" s="3" t="n">
         <v>1184.7</v>
       </c>
-      <c r="H16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="n">
+        <v>1260</v>
+      </c>
       <c r="I16" s="3" t="n">
         <v>375.68</v>
       </c>
@@ -1415,7 +1523,9 @@
       <c r="T17" s="4" t="n">
         <v>589.58</v>
       </c>
-      <c r="U17" s="4" t="inlineStr"/>
+      <c r="U17" s="4" t="n">
+        <v>3395.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
@@ -1424,7 +1534,9 @@
       <c r="B18" s="4" t="n">
         <v>1185.8</v>
       </c>
-      <c r="C18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="n">
+        <v>726.12</v>
+      </c>
       <c r="D18" s="4" t="n">
         <v>381.23</v>
       </c>
@@ -1485,18 +1597,24 @@
       <c r="B19" s="4" t="n">
         <v>1201.1</v>
       </c>
-      <c r="C19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="n">
+        <v>732.35</v>
+      </c>
       <c r="D19" s="4" t="n">
         <v>380.37</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>601.13</v>
       </c>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="n">
+        <v>129.15</v>
+      </c>
       <c r="G19" s="4" t="n">
         <v>1166.8</v>
       </c>
-      <c r="H19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="n">
+        <v>1290.5</v>
+      </c>
       <c r="I19" s="4" t="n">
         <v>372.23</v>
       </c>
@@ -1509,7 +1627,9 @@
       <c r="L19" s="4" t="n">
         <v>990.86</v>
       </c>
-      <c r="M19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="n">
+        <v>1708.2</v>
+      </c>
       <c r="N19" s="4" t="n">
         <v>315.85</v>
       </c>
@@ -1557,7 +1677,9 @@
       <c r="G20" s="4" t="n">
         <v>1149.1</v>
       </c>
-      <c r="H20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="n">
+        <v>1282.5</v>
+      </c>
       <c r="I20" s="4" t="n">
         <v>365.94</v>
       </c>
@@ -1570,7 +1692,9 @@
       <c r="L20" s="4" t="n">
         <v>981.0700000000001</v>
       </c>
-      <c r="M20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="n">
+        <v>1698.8</v>
+      </c>
       <c r="N20" s="4" t="n">
         <v>312.43</v>
       </c>
@@ -1600,34 +1724,58 @@
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="n">
+        <v>1165.7</v>
+      </c>
       <c r="C21" s="4" t="n">
         <v>730.1900000000001</v>
       </c>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>581.27</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>124.52</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>1135.1</v>
+      </c>
       <c r="H21" s="4" t="n">
         <v>1283.8</v>
       </c>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="n">
+        <v>361.95</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>703.5599999999999</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>940.37</v>
+      </c>
       <c r="L21" s="4" t="inlineStr"/>
       <c r="M21" s="4" t="n">
         <v>1699.6</v>
       </c>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="n">
+        <v>307.83</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>736.4400000000001</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>2164.1</v>
+      </c>
       <c r="Q21" s="4" t="inlineStr"/>
       <c r="R21" s="4" t="n">
         <v>1845.1</v>
       </c>
       <c r="S21" s="4" t="inlineStr"/>
       <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="n">
+        <v>3316.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1636,7 +1784,9 @@
       <c r="B22" s="3" t="n">
         <v>1147</v>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
+      <c r="C22" s="3" t="n">
+        <v>687.79</v>
+      </c>
       <c r="D22" s="3" t="n">
         <v>363.63</v>
       </c>
@@ -1761,31 +1911,51 @@
       <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="n">
+        <v>1157.9</v>
+      </c>
       <c r="C24" s="3" t="n">
         <v>694.37</v>
       </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="n">
+        <v>367.21</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>558.1799999999999</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>117.35</v>
+      </c>
       <c r="G24" s="3" t="n">
         <v>1129.3</v>
       </c>
-      <c r="H24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>1226.6</v>
+      </c>
       <c r="I24" s="3" t="n">
         <v>359.48</v>
       </c>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="n">
+        <v>683.11</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>899.72</v>
+      </c>
       <c r="L24" s="3" t="n">
         <v>971.8200000000001</v>
       </c>
-      <c r="M24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="n">
+        <v>1639.5</v>
+      </c>
       <c r="N24" s="3" t="n">
         <v>309.48</v>
       </c>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="n">
+        <v>725.11</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>2116.8</v>
+      </c>
       <c r="Q24" s="3" t="n">
         <v>682.6900000000001</v>
       </c>
@@ -1806,28 +1976,66 @@
       <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="n">
+        <v>1111.3</v>
+      </c>
       <c r="C25" s="3" t="n">
         <v>688.28</v>
       </c>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr"/>
-      <c r="J25" s="3" t="inlineStr"/>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr"/>
-      <c r="P25" s="3" t="inlineStr"/>
-      <c r="Q25" s="3" t="inlineStr"/>
-      <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr"/>
-      <c r="T25" s="3" t="inlineStr"/>
-      <c r="U25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="n">
+        <v>351.59</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>538.65</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>111.64</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1089.4</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1197</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>345.74</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>653.3099999999999</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>848.5700000000001</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>950.13</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>1597.7</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>302.98</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>697.85</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>2025.4</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>674.41</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>1783.2</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>212.88</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>566.86</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <v>3243.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1836,7 +2044,9 @@
       <c r="B26" s="3" t="n">
         <v>1150.4</v>
       </c>
-      <c r="C26" s="3" t="inlineStr"/>
+      <c r="C26" s="3" t="n">
+        <v>695.1900000000001</v>
+      </c>
       <c r="D26" s="3" t="n">
         <v>364.1</v>
       </c>
@@ -1879,14 +2089,18 @@
       <c r="Q26" s="3" t="n">
         <v>683.13</v>
       </c>
-      <c r="R26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="n">
+        <v>1801.9</v>
+      </c>
       <c r="S26" s="3" t="n">
         <v>215.82</v>
       </c>
       <c r="T26" s="3" t="n">
         <v>574.6799999999999</v>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="n">
+        <v>3304.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
@@ -1922,26 +2136,36 @@
       <c r="K27" s="4" t="n">
         <v>880.3200000000001</v>
       </c>
-      <c r="L27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="n">
+        <v>978.8099999999999</v>
+      </c>
       <c r="M27" s="4" t="n">
         <v>1598.8</v>
       </c>
-      <c r="N27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="n">
+        <v>312.1</v>
+      </c>
       <c r="O27" s="4" t="n">
         <v>723.28</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>2094</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="Q27" s="4" t="n">
+        <v>691.39</v>
+      </c>
       <c r="R27" s="4" t="n">
         <v>1777.8</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>218.73</v>
       </c>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="n">
+        <v>580.6</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>3312.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
@@ -2063,8 +2287,12 @@
       <c r="R29" s="4" t="n">
         <v>1778.3</v>
       </c>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="n">
+        <v>217.11</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v>575.1900000000001</v>
+      </c>
       <c r="U29" s="4" t="n">
         <v>3300.7</v>
       </c>
@@ -2073,57 +2301,117 @@
       <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
+      <c r="B30" s="4" t="n">
+        <v>1119.4</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>661.91</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>353.59</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>534.24</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>108.66</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>1098.7</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>1156.6</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>650.83</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>832.35</v>
+      </c>
       <c r="L30" s="4" t="n">
         <v>966.85</v>
       </c>
-      <c r="M30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="n">
+        <v>1557.4</v>
+      </c>
       <c r="N30" s="4" t="n">
         <v>308.36</v>
       </c>
-      <c r="O30" s="4" t="inlineStr"/>
-      <c r="P30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="n">
+        <v>700.84</v>
+      </c>
+      <c r="P30" s="4" t="n">
+        <v>2021.3</v>
+      </c>
       <c r="Q30" s="4" t="n">
         <v>689.89</v>
       </c>
       <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="n">
+        <v>219.66</v>
+      </c>
       <c r="T30" s="4" t="n">
         <v>577.36</v>
       </c>
-      <c r="U30" s="4" t="inlineStr"/>
+      <c r="U30" s="4" t="n">
+        <v>3266.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
+      <c r="B31" s="4" t="n">
+        <v>1171.9</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>673.3</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>550.36</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>115.46</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>1141.2</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>1204</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>682.45</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>898.72</v>
+      </c>
       <c r="L31" s="4" t="n">
         <v>977.98</v>
       </c>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="n">
+        <v>1612.3</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>311.83</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>725.52</v>
+      </c>
+      <c r="P31" s="4" t="n">
+        <v>2108.2</v>
+      </c>
+      <c r="Q31" s="4" t="n">
+        <v>688.2</v>
+      </c>
       <c r="R31" s="4" t="n">
         <v>1767</v>
       </c>
@@ -2141,28 +2429,64 @@
       <c r="A32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr"/>
-      <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>689.01</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>349.23</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>540</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>1200.4</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>343.16</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>652.36</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>847.79</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>946.39</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>1599.5</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>301.39</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>695.37</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>2021.8</v>
+      </c>
       <c r="Q32" s="3" t="n">
         <v>669.37</v>
       </c>
       <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="n">
+        <v>213.13</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>562.64</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>3193.9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -2233,26 +2557,64 @@
       <c r="A34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="n">
+        <v>1068.7</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>674.49</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>337.12</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>519.12</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>106.08</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1165.7</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>331.78</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>626.0599999999999</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>803.27</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>922.5700000000001</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>1552.3</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>294.27</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>669.35</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>1928</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>659.59</v>
+      </c>
       <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="n">
+        <v>210.04</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>551.17</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>3107.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -2391,7 +2753,9 @@
       <c r="B37" s="4" t="n">
         <v>1225.3</v>
       </c>
-      <c r="C37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="n">
+        <v>674.5700000000001</v>
+      </c>
       <c r="D37" s="4" t="n">
         <v>386.96</v>
       </c>
@@ -2434,7 +2798,9 @@
       <c r="Q37" s="4" t="n">
         <v>712.1</v>
       </c>
-      <c r="R37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="n">
+        <v>1787.8</v>
+      </c>
       <c r="S37" s="4" t="n">
         <v>225.17</v>
       </c>
@@ -2474,7 +2840,9 @@
       <c r="J38" s="4" t="n">
         <v>731.61</v>
       </c>
-      <c r="K38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="n">
+        <v>964.75</v>
+      </c>
       <c r="L38" s="4" t="n">
         <v>1009.1</v>
       </c>
@@ -2558,7 +2926,9 @@
       <c r="Q39" s="4" t="n">
         <v>714.49</v>
       </c>
-      <c r="R39" s="4" t="inlineStr"/>
+      <c r="R39" s="4" t="n">
+        <v>1792.9</v>
+      </c>
       <c r="S39" s="4" t="n">
         <v>225.72</v>
       </c>
@@ -2573,22 +2943,34 @@
       <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="inlineStr"/>
+      <c r="B40" s="4" t="n">
+        <v>1195.5</v>
+      </c>
       <c r="C40" s="4" t="n">
         <v>681.13</v>
       </c>
-      <c r="D40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="n">
+        <v>378.52</v>
+      </c>
       <c r="E40" s="4" t="n">
         <v>585.39</v>
       </c>
       <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="n">
+        <v>1165.9</v>
+      </c>
       <c r="H40" s="4" t="n">
         <v>1217.5</v>
       </c>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="n">
+        <v>370.99</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>715.67</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>932.89</v>
+      </c>
       <c r="L40" s="4" t="n">
         <v>1005.7</v>
       </c>
@@ -2598,8 +2980,12 @@
       <c r="N40" s="4" t="n">
         <v>320.31</v>
       </c>
-      <c r="O40" s="4" t="inlineStr"/>
-      <c r="P40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="n">
+        <v>756.76</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>2192.5</v>
+      </c>
       <c r="Q40" s="4" t="n">
         <v>715.21</v>
       </c>
@@ -2629,14 +3015,18 @@
       <c r="D41" s="4" t="n">
         <v>381.49</v>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="n">
+        <v>601.1900000000001</v>
+      </c>
       <c r="F41" s="4" t="n">
         <v>122.57</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1177.7</v>
       </c>
-      <c r="H41" s="4" t="inlineStr"/>
+      <c r="H41" s="4" t="n">
+        <v>1211</v>
+      </c>
       <c r="I41" s="4" t="n">
         <v>374.32</v>
       </c>
@@ -2647,10 +3037,16 @@
         <v>945.5599999999999</v>
       </c>
       <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="n">
+        <v>1622.2</v>
+      </c>
       <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr"/>
-      <c r="P41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="n">
+        <v>772.09</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>2219</v>
+      </c>
       <c r="Q41" s="4" t="inlineStr"/>
       <c r="R41" s="4" t="n">
         <v>1789.6</v>
@@ -2729,25 +3125,45 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="inlineStr"/>
-      <c r="C43" s="3" t="inlineStr"/>
+      <c r="C43" s="3" t="n">
+        <v>675.88</v>
+      </c>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="n">
+        <v>1210.1</v>
+      </c>
       <c r="I43" s="3" t="inlineStr"/>
       <c r="J43" s="3" t="inlineStr"/>
       <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>1624.6</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>322.78</v>
+      </c>
       <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="inlineStr"/>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="n">
+        <v>715.22</v>
+      </c>
+      <c r="R43" s="3" t="n">
+        <v>1779.3</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>226.91</v>
+      </c>
+      <c r="T43" s="3" t="n">
+        <v>603.87</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>3430.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -2771,7 +3187,9 @@
       <c r="G44" s="3" t="n">
         <v>1147.5</v>
       </c>
-      <c r="H44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="n">
+        <v>1189.3</v>
+      </c>
       <c r="I44" s="3" t="n">
         <v>364.92</v>
       </c>
@@ -2784,7 +3202,9 @@
       <c r="L44" s="3" t="n">
         <v>992.88</v>
       </c>
-      <c r="M44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="n">
+        <v>1596.6</v>
+      </c>
       <c r="N44" s="3" t="n">
         <v>316.58</v>
       </c>
@@ -2817,7 +3237,9 @@
       <c r="B45" s="3" t="n">
         <v>1172.5</v>
       </c>
-      <c r="C45" s="3" t="inlineStr"/>
+      <c r="C45" s="3" t="n">
+        <v>666.58</v>
+      </c>
       <c r="D45" s="3" t="n">
         <v>371.09</v>
       </c>
@@ -2857,13 +3279,21 @@
       <c r="P45" s="3" t="n">
         <v>2112.3</v>
       </c>
-      <c r="Q45" s="3" t="inlineStr"/>
-      <c r="R45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="n">
+        <v>697.75</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>1766.7</v>
+      </c>
       <c r="S45" s="3" t="n">
         <v>220.85</v>
       </c>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="n">
+        <v>583.61</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>3323.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -2991,7 +3421,9 @@
       <c r="T47" s="4" t="n">
         <v>593.4400000000001</v>
       </c>
-      <c r="U47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="n">
+        <v>3380.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
@@ -3000,7 +3432,9 @@
       <c r="B48" s="4" t="n">
         <v>1162.2</v>
       </c>
-      <c r="C48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="n">
+        <v>648.1799999999999</v>
+      </c>
       <c r="D48" s="4" t="n">
         <v>367.23</v>
       </c>
@@ -3013,7 +3447,9 @@
       <c r="G48" s="4" t="n">
         <v>1144.6</v>
       </c>
-      <c r="H48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="n">
+        <v>1142.7</v>
+      </c>
       <c r="I48" s="4" t="n">
         <v>362.14</v>
       </c>
@@ -3023,20 +3459,36 @@
       <c r="K48" s="4" t="n">
         <v>866.5700000000001</v>
       </c>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>1543.9</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>324.87</v>
+      </c>
       <c r="O48" s="4" t="n">
         <v>744.8200000000001</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>2128.3</v>
       </c>
-      <c r="Q48" s="4" t="inlineStr"/>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr"/>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
+      <c r="Q48" s="4" t="n">
+        <v>738.42</v>
+      </c>
+      <c r="R48" s="4" t="n">
+        <v>1759.2</v>
+      </c>
+      <c r="S48" s="4" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <v>622.74</v>
+      </c>
+      <c r="U48" s="4" t="n">
+        <v>3525</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
@@ -3051,7 +3503,9 @@
       <c r="D49" s="4" t="n">
         <v>372.19</v>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="n">
+        <v>563.15</v>
+      </c>
       <c r="F49" s="4" t="n">
         <v>114.33</v>
       </c>
@@ -3144,8 +3598,12 @@
       <c r="N50" s="4" t="n">
         <v>321.75</v>
       </c>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="n">
+        <v>738.62</v>
+      </c>
+      <c r="P50" s="4" t="n">
+        <v>2115.6</v>
+      </c>
       <c r="Q50" s="4" t="n">
         <v>725.64</v>
       </c>
@@ -3166,29 +3624,57 @@
       <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="inlineStr"/>
-      <c r="C51" s="4" t="inlineStr"/>
-      <c r="D51" s="4" t="inlineStr"/>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr"/>
+      <c r="B51" s="4" t="n">
+        <v>1222.4</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>676.99</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>385.61</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>575.25</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>121.92</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>1183.4</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>1224.9</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>375.74</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>717.2</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>951.77</v>
+      </c>
       <c r="L51" s="4" t="n">
         <v>999.33</v>
       </c>
-      <c r="M51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="n">
+        <v>1638.6</v>
+      </c>
       <c r="N51" s="4" t="n">
         <v>318.63</v>
       </c>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="n">
+        <v>754.41</v>
+      </c>
+      <c r="P51" s="4" t="n">
+        <v>2189.6</v>
+      </c>
       <c r="Q51" s="4" t="n">
         <v>706.8200000000001</v>
       </c>
-      <c r="R51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="n">
+        <v>1789.1</v>
+      </c>
       <c r="S51" s="4" t="n">
         <v>223.15</v>
       </c>
@@ -3203,20 +3689,32 @@
       <c r="A52" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="inlineStr"/>
-      <c r="C52" s="3" t="inlineStr"/>
+      <c r="B52" s="3" t="n">
+        <v>1046.8</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>679.04</v>
+      </c>
       <c r="D52" s="3" t="n">
         <v>335.82</v>
       </c>
-      <c r="E52" s="3" t="inlineStr"/>
+      <c r="E52" s="3" t="n">
+        <v>508.39</v>
+      </c>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="n">
         <v>1036</v>
       </c>
-      <c r="H52" s="3" t="inlineStr"/>
+      <c r="H52" s="3" t="n">
+        <v>1160.8</v>
+      </c>
       <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="n">
+        <v>612.0599999999999</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>770.83</v>
+      </c>
       <c r="L52" s="3" t="n">
         <v>937.6</v>
       </c>
@@ -3231,18 +3729,24 @@
       <c r="Q52" s="3" t="inlineStr"/>
       <c r="R52" s="3" t="inlineStr"/>
       <c r="S52" s="3" t="inlineStr"/>
-      <c r="T52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="n">
+        <v>578.67</v>
+      </c>
       <c r="U52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="inlineStr"/>
+      <c r="B53" s="3" t="n">
+        <v>1059.1</v>
+      </c>
       <c r="C53" s="3" t="n">
         <v>683.45</v>
       </c>
-      <c r="D53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="n">
+        <v>336.54</v>
+      </c>
       <c r="E53" s="3" t="n">
         <v>514.15</v>
       </c>
@@ -3271,7 +3775,9 @@
       <c r="N53" s="3" t="n">
         <v>298.77</v>
       </c>
-      <c r="O53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="n">
+        <v>668.71</v>
+      </c>
       <c r="P53" s="3" t="n">
         <v>1943.5</v>
       </c>
@@ -3295,22 +3801,36 @@
       <c r="A54" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="inlineStr"/>
+      <c r="B54" s="3" t="n">
+        <v>1059.3</v>
+      </c>
       <c r="C54" s="3" t="n">
         <v>686.51</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>335.17</v>
       </c>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="n">
+        <v>515.1799999999999</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>105.59</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1045.6</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>1171.5</v>
+      </c>
       <c r="I54" s="3" t="n">
         <v>330.62</v>
       </c>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="n">
+        <v>619.79</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>788.35</v>
+      </c>
       <c r="L54" s="3" t="n">
         <v>937.42</v>
       </c>
@@ -3349,7 +3869,9 @@
       <c r="B55" s="3" t="n">
         <v>1052.1</v>
       </c>
-      <c r="C55" s="3" t="inlineStr"/>
+      <c r="C55" s="3" t="n">
+        <v>688.14</v>
+      </c>
       <c r="D55" s="3" t="n">
         <v>335.26</v>
       </c>
@@ -3415,7 +3937,9 @@
       <c r="C56" s="3" t="n">
         <v>685.5</v>
       </c>
-      <c r="D56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="n">
+        <v>334.38</v>
+      </c>
       <c r="E56" s="3" t="n">
         <v>509.75</v>
       </c>
@@ -3437,12 +3961,16 @@
       <c r="K56" s="3" t="n">
         <v>775.78</v>
       </c>
-      <c r="L56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="n">
+        <v>933.4</v>
+      </c>
       <c r="M56" s="3" t="inlineStr"/>
       <c r="N56" s="3" t="n">
         <v>297.86</v>
       </c>
-      <c r="O56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="n">
+        <v>662.62</v>
+      </c>
       <c r="P56" s="3" t="inlineStr"/>
       <c r="Q56" s="3" t="n">
         <v>679.76</v>
@@ -3464,15 +3992,21 @@
       <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="inlineStr"/>
-      <c r="C57" s="4" t="inlineStr"/>
+      <c r="B57" s="4" t="n">
+        <v>1042.6</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>696.47</v>
+      </c>
       <c r="D57" s="4" t="n">
         <v>332.34</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>505.02</v>
       </c>
-      <c r="F57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="n">
+        <v>105.4</v>
+      </c>
       <c r="G57" s="4" t="n">
         <v>1024.6</v>
       </c>
@@ -3485,8 +4019,12 @@
       <c r="J57" s="4" t="n">
         <v>608.64</v>
       </c>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
+      <c r="K57" s="4" t="n">
+        <v>781.8099999999999</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>903.01</v>
+      </c>
       <c r="M57" s="4" t="n">
         <v>1577.1</v>
       </c>
@@ -3499,40 +4037,62 @@
       <c r="P57" s="4" t="n">
         <v>1884.7</v>
       </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr"/>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr"/>
+      <c r="Q57" s="4" t="n">
+        <v>662.86</v>
+      </c>
+      <c r="R57" s="4" t="n">
+        <v>1846.5</v>
+      </c>
+      <c r="S57" s="4" t="n">
+        <v>209.59</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>554.14</v>
+      </c>
+      <c r="U57" s="4" t="n">
+        <v>3264.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="inlineStr"/>
+      <c r="B58" s="4" t="n">
+        <v>1032.3</v>
+      </c>
       <c r="C58" s="4" t="n">
         <v>689.55</v>
       </c>
-      <c r="D58" s="4" t="inlineStr"/>
+      <c r="D58" s="4" t="n">
+        <v>331.22</v>
+      </c>
       <c r="E58" s="4" t="n">
         <v>501.64</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>103.86</v>
       </c>
-      <c r="G58" s="4" t="inlineStr"/>
+      <c r="G58" s="4" t="n">
+        <v>1018.4</v>
+      </c>
       <c r="H58" s="4" t="n">
         <v>1180.9</v>
       </c>
-      <c r="I58" s="4" t="inlineStr"/>
-      <c r="J58" s="4" t="inlineStr"/>
+      <c r="I58" s="4" t="n">
+        <v>324.35</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>604.29</v>
+      </c>
       <c r="K58" s="4" t="n">
         <v>774.21</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>905.88</v>
       </c>
-      <c r="M58" s="4" t="inlineStr"/>
+      <c r="M58" s="4" t="n">
+        <v>1584.8</v>
+      </c>
       <c r="N58" s="4" t="inlineStr"/>
       <c r="O58" s="4" t="n">
         <v>651.5</v>
@@ -3546,7 +4106,9 @@
       <c r="R58" s="4" t="n">
         <v>1832</v>
       </c>
-      <c r="S58" s="4" t="inlineStr"/>
+      <c r="S58" s="4" t="n">
+        <v>209.7</v>
+      </c>
       <c r="T58" s="4" t="n">
         <v>551.9299999999999</v>
       </c>
@@ -3564,8 +4126,12 @@
       <c r="C59" s="4" t="n">
         <v>688.25</v>
       </c>
-      <c r="D59" s="4" t="inlineStr"/>
-      <c r="E59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="n">
+        <v>333.42</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>505.95</v>
+      </c>
       <c r="F59" s="4" t="n">
         <v>104.88</v>
       </c>
@@ -3573,14 +4139,18 @@
         <v>1022.3</v>
       </c>
       <c r="H59" s="4" t="inlineStr"/>
-      <c r="I59" s="4" t="inlineStr"/>
+      <c r="I59" s="4" t="n">
+        <v>328.19</v>
+      </c>
       <c r="J59" s="4" t="n">
         <v>608.53</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>775.76</v>
       </c>
-      <c r="L59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="n">
+        <v>908.39</v>
+      </c>
       <c r="M59" s="4" t="n">
         <v>1580.8</v>
       </c>
@@ -3588,7 +4158,9 @@
         <v>287.68</v>
       </c>
       <c r="O59" s="4" t="inlineStr"/>
-      <c r="P59" s="4" t="inlineStr"/>
+      <c r="P59" s="4" t="n">
+        <v>1902.5</v>
+      </c>
       <c r="Q59" s="4" t="n">
         <v>650.21</v>
       </c>
@@ -3609,15 +4181,21 @@
       <c r="A60" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="inlineStr"/>
+      <c r="B60" s="4" t="n">
+        <v>1032.1</v>
+      </c>
       <c r="C60" s="4" t="n">
         <v>690.24</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>331.69</v>
       </c>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="4" t="inlineStr"/>
+      <c r="E60" s="4" t="n">
+        <v>500.86</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>103.59</v>
+      </c>
       <c r="G60" s="4" t="n">
         <v>1019.5</v>
       </c>
@@ -3627,14 +4205,18 @@
       <c r="I60" s="4" t="n">
         <v>324.54</v>
       </c>
-      <c r="J60" s="4" t="inlineStr"/>
+      <c r="J60" s="4" t="n">
+        <v>604.3099999999999</v>
+      </c>
       <c r="K60" s="4" t="n">
         <v>775.34</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>903.67</v>
       </c>
-      <c r="M60" s="4" t="inlineStr"/>
+      <c r="M60" s="4" t="n">
+        <v>1575</v>
+      </c>
       <c r="N60" s="4" t="n">
         <v>287.74</v>
       </c>
@@ -3642,15 +4224,21 @@
       <c r="P60" s="4" t="n">
         <v>1885.1</v>
       </c>
-      <c r="Q60" s="4" t="inlineStr"/>
+      <c r="Q60" s="4" t="n">
+        <v>646.76</v>
+      </c>
       <c r="R60" s="4" t="n">
         <v>1783.4</v>
       </c>
       <c r="S60" s="4" t="n">
         <v>205.87</v>
       </c>
-      <c r="T60" s="4" t="inlineStr"/>
-      <c r="U60" s="4" t="inlineStr"/>
+      <c r="T60" s="4" t="n">
+        <v>541.41</v>
+      </c>
+      <c r="U60" s="4" t="n">
+        <v>3094.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
@@ -3692,9 +4280,7 @@
       <c r="M61" s="4" t="n">
         <v>1577.5</v>
       </c>
-      <c r="N61" s="4" t="n">
-        <v>288.35</v>
-      </c>
+      <c r="N61" s="4" t="inlineStr"/>
       <c r="O61" s="4" t="n">
         <v>651.67</v>
       </c>
@@ -3772,7 +4358,9 @@
       <c r="R62" s="3" t="n">
         <v>1744.3</v>
       </c>
-      <c r="S62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="n">
+        <v>204.37</v>
+      </c>
       <c r="T62" s="3" t="n">
         <v>528</v>
       </c>
@@ -3835,7 +4423,9 @@
       <c r="R63" s="3" t="n">
         <v>1745.1</v>
       </c>
-      <c r="S63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="n">
+        <v>203.98</v>
+      </c>
       <c r="T63" s="3" t="n">
         <v>528.4</v>
       </c>
@@ -3912,22 +4502,36 @@
       <c r="A65" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="inlineStr"/>
+      <c r="B65" s="3" t="n">
+        <v>957.13</v>
+      </c>
       <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="n">
+        <v>307.17</v>
+      </c>
       <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr"/>
-      <c r="G65" s="3" t="inlineStr"/>
+      <c r="F65" s="3" t="n">
+        <v>91.00700000000001</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>951.09</v>
+      </c>
       <c r="H65" s="3" t="inlineStr"/>
       <c r="I65" s="3" t="inlineStr"/>
       <c r="J65" s="3" t="inlineStr"/>
       <c r="K65" s="3" t="inlineStr"/>
-      <c r="L65" s="3" t="inlineStr"/>
+      <c r="L65" s="3" t="n">
+        <v>867.51</v>
+      </c>
       <c r="M65" s="3" t="inlineStr"/>
-      <c r="N65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="n">
+        <v>276.24</v>
+      </c>
       <c r="O65" s="3" t="inlineStr"/>
       <c r="P65" s="3" t="inlineStr"/>
-      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="n">
+        <v>646.8099999999999</v>
+      </c>
       <c r="R65" s="3" t="n">
         <v>1753.2</v>
       </c>
@@ -3967,26 +4571,42 @@
       <c r="I66" s="3" t="n">
         <v>306.16</v>
       </c>
-      <c r="J66" s="3" t="inlineStr"/>
+      <c r="J66" s="3" t="n">
+        <v>555</v>
+      </c>
       <c r="K66" s="3" t="n">
         <v>686.72</v>
       </c>
-      <c r="L66" s="3" t="inlineStr"/>
+      <c r="L66" s="3" t="n">
+        <v>871.8</v>
+      </c>
       <c r="M66" s="3" t="n">
         <v>1495</v>
       </c>
-      <c r="N66" s="3" t="inlineStr"/>
-      <c r="O66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="n">
+        <v>277.65</v>
+      </c>
+      <c r="O66" s="3" t="n">
+        <v>603.88</v>
+      </c>
       <c r="P66" s="3" t="n">
         <v>1732.8</v>
       </c>
-      <c r="Q66" s="3" t="inlineStr"/>
-      <c r="R66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="n">
+        <v>646.35</v>
+      </c>
+      <c r="R66" s="3" t="n">
+        <v>1764.5</v>
+      </c>
       <c r="S66" s="3" t="n">
         <v>204.04</v>
       </c>
-      <c r="T66" s="3" t="inlineStr"/>
-      <c r="U66" s="3" t="inlineStr"/>
+      <c r="T66" s="3" t="n">
+        <v>532.85</v>
+      </c>
+      <c r="U66" s="3" t="n">
+        <v>3073.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
@@ -3995,7 +4615,9 @@
       <c r="B67" s="4" t="n">
         <v>1068.7</v>
       </c>
-      <c r="C67" s="4" t="inlineStr"/>
+      <c r="C67" s="4" t="n">
+        <v>725.6799999999999</v>
+      </c>
       <c r="D67" s="4" t="n">
         <v>343.17</v>
       </c>
@@ -4069,14 +4691,20 @@
       <c r="I68" s="4" t="n">
         <v>333.87</v>
       </c>
-      <c r="J68" s="4" t="inlineStr"/>
+      <c r="J68" s="4" t="n">
+        <v>638.9400000000001</v>
+      </c>
       <c r="K68" s="4" t="n">
         <v>845.14</v>
       </c>
       <c r="L68" s="4" t="inlineStr"/>
-      <c r="M68" s="4" t="inlineStr"/>
+      <c r="M68" s="4" t="n">
+        <v>1673.8</v>
+      </c>
       <c r="N68" s="4" t="inlineStr"/>
-      <c r="O68" s="4" t="inlineStr"/>
+      <c r="O68" s="4" t="n">
+        <v>675.46</v>
+      </c>
       <c r="P68" s="4" t="n">
         <v>1983.6</v>
       </c>
@@ -4124,8 +4752,12 @@
       <c r="I69" s="4" t="n">
         <v>334.7</v>
       </c>
-      <c r="J69" s="4" t="inlineStr"/>
-      <c r="K69" s="4" t="inlineStr"/>
+      <c r="J69" s="4" t="n">
+        <v>641.16</v>
+      </c>
+      <c r="K69" s="4" t="n">
+        <v>850.87</v>
+      </c>
       <c r="L69" s="4" t="n">
         <v>906.7</v>
       </c>
@@ -4138,7 +4770,9 @@
       <c r="O69" s="4" t="n">
         <v>677.47</v>
       </c>
-      <c r="P69" s="4" t="inlineStr"/>
+      <c r="P69" s="4" t="n">
+        <v>1990.9</v>
+      </c>
       <c r="Q69" s="4" t="n">
         <v>637.01</v>
       </c>
@@ -4162,11 +4796,15 @@
       <c r="B70" s="4" t="n">
         <v>1067.3</v>
       </c>
-      <c r="C70" s="4" t="inlineStr"/>
+      <c r="C70" s="4" t="n">
+        <v>725.62</v>
+      </c>
       <c r="D70" s="4" t="n">
         <v>342.79</v>
       </c>
-      <c r="E70" s="4" t="inlineStr"/>
+      <c r="E70" s="4" t="n">
+        <v>530.9400000000001</v>
+      </c>
       <c r="F70" s="4" t="n">
         <v>112.59</v>
       </c>
@@ -4225,8 +4863,12 @@
         <v>728.21</v>
       </c>
       <c r="D71" s="4" t="inlineStr"/>
-      <c r="E71" s="4" t="inlineStr"/>
-      <c r="F71" s="4" t="inlineStr"/>
+      <c r="E71" s="4" t="n">
+        <v>533.28</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>113.31</v>
+      </c>
       <c r="G71" s="4" t="n">
         <v>1049.4</v>
       </c>
@@ -4235,7 +4877,9 @@
       <c r="J71" s="4" t="n">
         <v>640.6</v>
       </c>
-      <c r="K71" s="4" t="inlineStr"/>
+      <c r="K71" s="4" t="n">
+        <v>844.22</v>
+      </c>
       <c r="L71" s="4" t="n">
         <v>905.51</v>
       </c>
@@ -4248,7 +4892,9 @@
       <c r="O71" s="4" t="n">
         <v>677.34</v>
       </c>
-      <c r="P71" s="4" t="inlineStr"/>
+      <c r="P71" s="4" t="n">
+        <v>1979.7</v>
+      </c>
       <c r="Q71" s="4" t="inlineStr"/>
       <c r="R71" s="4" t="inlineStr"/>
       <c r="S71" s="4" t="inlineStr"/>
@@ -4259,27 +4905,37 @@
       <c r="A72" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="inlineStr"/>
+      <c r="B72" s="3" t="n">
+        <v>986.42</v>
+      </c>
       <c r="C72" s="3" t="n">
         <v>676.5</v>
       </c>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="3" t="inlineStr"/>
+      <c r="F72" s="3" t="n">
+        <v>96.274</v>
+      </c>
       <c r="G72" s="3" t="inlineStr"/>
       <c r="H72" s="3" t="n">
         <v>1143.1</v>
       </c>
-      <c r="I72" s="3" t="inlineStr"/>
+      <c r="I72" s="3" t="n">
+        <v>310.96</v>
+      </c>
       <c r="J72" s="3" t="inlineStr"/>
       <c r="K72" s="3" t="inlineStr"/>
-      <c r="L72" s="3" t="inlineStr"/>
+      <c r="L72" s="3" t="n">
+        <v>876.22</v>
+      </c>
       <c r="M72" s="3" t="n">
         <v>1524.9</v>
       </c>
       <c r="N72" s="3" t="inlineStr"/>
       <c r="O72" s="3" t="inlineStr"/>
-      <c r="P72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="n">
+        <v>1772.8</v>
+      </c>
       <c r="Q72" s="3" t="inlineStr"/>
       <c r="R72" s="3" t="inlineStr"/>
       <c r="S72" s="3" t="inlineStr"/>
@@ -4293,8 +4949,12 @@
       <c r="B73" s="3" t="n">
         <v>977.65</v>
       </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
+      <c r="C73" s="3" t="n">
+        <v>679.0599999999999</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>313.65</v>
+      </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="n">
         <v>95.48699999999999</v>
@@ -4305,18 +4965,30 @@
       <c r="H73" s="3" t="n">
         <v>1145.9</v>
       </c>
-      <c r="I73" s="3" t="inlineStr"/>
-      <c r="J73" s="3" t="inlineStr"/>
+      <c r="I73" s="3" t="n">
+        <v>308.39</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>563.9400000000001</v>
+      </c>
       <c r="K73" s="3" t="n">
         <v>711.28</v>
       </c>
-      <c r="L73" s="3" t="inlineStr"/>
+      <c r="L73" s="3" t="n">
+        <v>868.87</v>
+      </c>
       <c r="M73" s="3" t="n">
         <v>1528.1</v>
       </c>
-      <c r="N73" s="3" t="inlineStr"/>
-      <c r="O73" s="3" t="inlineStr"/>
-      <c r="P73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="n">
+        <v>277.08</v>
+      </c>
+      <c r="O73" s="3" t="n">
+        <v>610.46</v>
+      </c>
+      <c r="P73" s="3" t="n">
+        <v>1759</v>
+      </c>
       <c r="Q73" s="3" t="n">
         <v>636.75</v>
       </c>
@@ -4435,7 +5107,9 @@
       <c r="L75" s="3" t="n">
         <v>873.11</v>
       </c>
-      <c r="M75" s="3" t="inlineStr"/>
+      <c r="M75" s="3" t="n">
+        <v>1531.9</v>
+      </c>
       <c r="N75" s="3" t="n">
         <v>278.01</v>
       </c>
@@ -4468,7 +5142,9 @@
       <c r="B76" s="3" t="n">
         <v>980.41</v>
       </c>
-      <c r="C76" s="3" t="inlineStr"/>
+      <c r="C76" s="3" t="n">
+        <v>676.15</v>
+      </c>
       <c r="D76" s="3" t="n">
         <v>314.82</v>
       </c>
@@ -4481,7 +5157,9 @@
       <c r="G76" s="3" t="n">
         <v>970.88</v>
       </c>
-      <c r="H76" s="3" t="inlineStr"/>
+      <c r="H76" s="3" t="n">
+        <v>1140.5</v>
+      </c>
       <c r="I76" s="3" t="n">
         <v>309.95</v>
       </c>
@@ -4509,7 +5187,9 @@
       <c r="Q76" s="3" t="n">
         <v>637.4</v>
       </c>
-      <c r="R76" s="3" t="inlineStr"/>
+      <c r="R76" s="3" t="n">
+        <v>1766.8</v>
+      </c>
       <c r="S76" s="3" t="n">
         <v>202.24</v>
       </c>
@@ -4524,21 +5204,33 @@
       <c r="A77" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="inlineStr"/>
+      <c r="B77" s="4" t="n">
+        <v>954.15</v>
+      </c>
       <c r="C77" s="4" t="n">
         <v>647.12</v>
       </c>
-      <c r="D77" s="4" t="inlineStr"/>
-      <c r="E77" s="4" t="inlineStr"/>
+      <c r="D77" s="4" t="n">
+        <v>306.52</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>458.76</v>
+      </c>
       <c r="F77" s="4" t="n">
         <v>89.346</v>
       </c>
-      <c r="G77" s="4" t="inlineStr"/>
+      <c r="G77" s="4" t="n">
+        <v>948.67</v>
+      </c>
       <c r="H77" s="4" t="n">
         <v>1069.8</v>
       </c>
-      <c r="I77" s="4" t="inlineStr"/>
-      <c r="J77" s="4" t="inlineStr"/>
+      <c r="I77" s="4" t="n">
+        <v>301.98</v>
+      </c>
+      <c r="J77" s="4" t="n">
+        <v>545.35</v>
+      </c>
       <c r="K77" s="4" t="n">
         <v>656.86</v>
       </c>
@@ -4551,15 +5243,21 @@
       <c r="N77" s="4" t="n">
         <v>278.43</v>
       </c>
-      <c r="O77" s="4" t="inlineStr"/>
+      <c r="O77" s="4" t="n">
+        <v>594.8099999999999</v>
+      </c>
       <c r="P77" s="4" t="n">
         <v>1676.5</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>661.24</v>
       </c>
-      <c r="R77" s="4" t="inlineStr"/>
-      <c r="S77" s="4" t="inlineStr"/>
+      <c r="R77" s="4" t="n">
+        <v>1707.7</v>
+      </c>
+      <c r="S77" s="4" t="n">
+        <v>210.2</v>
+      </c>
       <c r="T77" s="4" t="n">
         <v>539.2</v>
       </c>
@@ -4600,14 +5298,18 @@
       <c r="L78" s="4" t="n">
         <v>874.35</v>
       </c>
-      <c r="M78" s="4" t="inlineStr"/>
+      <c r="M78" s="4" t="n">
+        <v>1437.6</v>
+      </c>
       <c r="N78" s="4" t="n">
         <v>278.39</v>
       </c>
       <c r="O78" s="4" t="n">
         <v>594.41</v>
       </c>
-      <c r="P78" s="4" t="inlineStr"/>
+      <c r="P78" s="4" t="n">
+        <v>1680.1</v>
+      </c>
       <c r="Q78" s="4" t="n">
         <v>660.3200000000001</v>
       </c>
@@ -4658,7 +5360,9 @@
       <c r="K79" s="4" t="n">
         <v>650.73</v>
       </c>
-      <c r="L79" s="4" t="inlineStr"/>
+      <c r="L79" s="4" t="n">
+        <v>868.6</v>
+      </c>
       <c r="M79" s="4" t="n">
         <v>1431.7</v>
       </c>
@@ -4674,8 +5378,12 @@
       <c r="Q79" s="4" t="n">
         <v>660.2</v>
       </c>
-      <c r="R79" s="4" t="inlineStr"/>
-      <c r="S79" s="4" t="inlineStr"/>
+      <c r="R79" s="4" t="n">
+        <v>1723.4</v>
+      </c>
+      <c r="S79" s="4" t="n">
+        <v>208.11</v>
+      </c>
       <c r="T79" s="4" t="n">
         <v>539</v>
       </c>
@@ -4687,26 +5395,52 @@
       <c r="A80" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="inlineStr"/>
+      <c r="B80" s="4" t="n">
+        <v>946.04</v>
+      </c>
       <c r="C80" s="4" t="n">
         <v>646.0599999999999</v>
       </c>
-      <c r="D80" s="4" t="inlineStr"/>
-      <c r="E80" s="4" t="inlineStr"/>
-      <c r="F80" s="4" t="inlineStr"/>
-      <c r="G80" s="4" t="inlineStr"/>
+      <c r="D80" s="4" t="n">
+        <v>303.62</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>453.88</v>
+      </c>
+      <c r="F80" s="4" t="n">
+        <v>88.28700000000001</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>940.9</v>
+      </c>
       <c r="H80" s="4" t="inlineStr"/>
-      <c r="I80" s="4" t="inlineStr"/>
-      <c r="J80" s="4" t="inlineStr"/>
-      <c r="K80" s="4" t="inlineStr"/>
-      <c r="L80" s="4" t="inlineStr"/>
+      <c r="I80" s="4" t="n">
+        <v>299.53</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>539.3200000000001</v>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>648.3</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>868.9400000000001</v>
+      </c>
       <c r="M80" s="4" t="n">
         <v>1425.9</v>
       </c>
-      <c r="N80" s="4" t="inlineStr"/>
-      <c r="O80" s="4" t="inlineStr"/>
-      <c r="P80" s="4" t="inlineStr"/>
-      <c r="Q80" s="4" t="inlineStr"/>
+      <c r="N80" s="4" t="n">
+        <v>276.66</v>
+      </c>
+      <c r="O80" s="4" t="n">
+        <v>589.22</v>
+      </c>
+      <c r="P80" s="4" t="n">
+        <v>1661.7</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>658.79</v>
+      </c>
       <c r="R80" s="4" t="n">
         <v>1708.7</v>
       </c>
@@ -4714,7 +5448,9 @@
         <v>208.24</v>
       </c>
       <c r="T80" s="4" t="inlineStr"/>
-      <c r="U80" s="4" t="inlineStr"/>
+      <c r="U80" s="4" t="n">
+        <v>3059.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="n">
@@ -4753,7 +5489,9 @@
       <c r="L81" s="4" t="n">
         <v>874.46</v>
       </c>
-      <c r="M81" s="4" t="inlineStr"/>
+      <c r="M81" s="4" t="n">
+        <v>1423.5</v>
+      </c>
       <c r="N81" s="4" t="n">
         <v>278.75</v>
       </c>
@@ -4763,7 +5501,9 @@
       <c r="P81" s="4" t="n">
         <v>1668</v>
       </c>
-      <c r="Q81" s="4" t="inlineStr"/>
+      <c r="Q81" s="4" t="n">
+        <v>662.33</v>
+      </c>
       <c r="R81" s="4" t="n">
         <v>1717.7</v>
       </c>
@@ -4847,7 +5587,9 @@
       <c r="B83" s="3" t="n">
         <v>975.34</v>
       </c>
-      <c r="C83" s="3" t="inlineStr"/>
+      <c r="C83" s="3" t="n">
+        <v>667.22</v>
+      </c>
       <c r="D83" s="3" t="n">
         <v>313.09</v>
       </c>
@@ -4860,7 +5602,9 @@
       <c r="G83" s="3" t="n">
         <v>966.4400000000001</v>
       </c>
-      <c r="H83" s="3" t="inlineStr"/>
+      <c r="H83" s="3" t="n">
+        <v>1141.7</v>
+      </c>
       <c r="I83" s="3" t="n">
         <v>307.66</v>
       </c>
@@ -4885,19 +5629,29 @@
       <c r="P83" s="3" t="n">
         <v>1756.6</v>
       </c>
-      <c r="Q83" s="3" t="inlineStr"/>
-      <c r="R83" s="3" t="inlineStr"/>
+      <c r="Q83" s="3" t="n">
+        <v>632.6900000000001</v>
+      </c>
+      <c r="R83" s="3" t="n">
+        <v>1770.9</v>
+      </c>
       <c r="S83" s="3" t="n">
         <v>199.63</v>
       </c>
-      <c r="T83" s="3" t="inlineStr"/>
-      <c r="U83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="n">
+        <v>522.5700000000001</v>
+      </c>
+      <c r="U83" s="3" t="n">
+        <v>3016.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="inlineStr"/>
+      <c r="B84" s="3" t="n">
+        <v>970.55</v>
+      </c>
       <c r="C84" s="3" t="n">
         <v>670.4400000000001</v>
       </c>
@@ -4916,7 +5670,9 @@
       <c r="H84" s="3" t="n">
         <v>1145</v>
       </c>
-      <c r="I84" s="3" t="inlineStr"/>
+      <c r="I84" s="3" t="n">
+        <v>306.19</v>
+      </c>
       <c r="J84" s="3" t="n">
         <v>562.72</v>
       </c>
@@ -4938,13 +5694,19 @@
       <c r="P84" s="3" t="n">
         <v>1750.6</v>
       </c>
-      <c r="Q84" s="3" t="inlineStr"/>
+      <c r="Q84" s="3" t="n">
+        <v>623.41</v>
+      </c>
       <c r="R84" s="3" t="n">
         <v>1753.9</v>
       </c>
       <c r="S84" s="3" t="inlineStr"/>
-      <c r="T84" s="3" t="inlineStr"/>
-      <c r="U84" s="3" t="inlineStr"/>
+      <c r="T84" s="3" t="n">
+        <v>516.14</v>
+      </c>
+      <c r="U84" s="3" t="n">
+        <v>2945.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
@@ -4959,32 +5721,48 @@
       <c r="D85" s="3" t="n">
         <v>311.77</v>
       </c>
-      <c r="E85" s="3" t="inlineStr"/>
+      <c r="E85" s="3" t="n">
+        <v>465.95</v>
+      </c>
       <c r="F85" s="3" t="n">
         <v>94.101</v>
       </c>
-      <c r="G85" s="3" t="inlineStr"/>
+      <c r="G85" s="3" t="n">
+        <v>961.08</v>
+      </c>
       <c r="H85" s="3" t="n">
         <v>1142</v>
       </c>
       <c r="I85" s="3" t="n">
         <v>306.77</v>
       </c>
-      <c r="J85" s="3" t="inlineStr"/>
-      <c r="K85" s="3" t="inlineStr"/>
+      <c r="J85" s="3" t="n">
+        <v>561.86</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>708.21</v>
+      </c>
       <c r="L85" s="3" t="n">
         <v>858.2</v>
       </c>
-      <c r="M85" s="3" t="inlineStr"/>
+      <c r="M85" s="3" t="n">
+        <v>1526.7</v>
+      </c>
       <c r="N85" s="3" t="n">
         <v>273.55</v>
       </c>
-      <c r="O85" s="3" t="inlineStr"/>
-      <c r="P85" s="3" t="inlineStr"/>
+      <c r="O85" s="3" t="n">
+        <v>607.4</v>
+      </c>
+      <c r="P85" s="3" t="n">
+        <v>1748.1</v>
+      </c>
       <c r="Q85" s="3" t="n">
         <v>626.64</v>
       </c>
-      <c r="R85" s="3" t="inlineStr"/>
+      <c r="R85" s="3" t="n">
+        <v>1752.2</v>
+      </c>
       <c r="S85" s="3" t="n">
         <v>199.25</v>
       </c>
@@ -4999,28 +5777,60 @@
       <c r="A86" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="inlineStr"/>
-      <c r="C86" s="3" t="inlineStr"/>
-      <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="inlineStr"/>
-      <c r="F86" s="3" t="inlineStr"/>
-      <c r="G86" s="3" t="inlineStr"/>
-      <c r="H86" s="3" t="inlineStr"/>
-      <c r="I86" s="3" t="inlineStr"/>
-      <c r="J86" s="3" t="inlineStr"/>
-      <c r="K86" s="3" t="inlineStr"/>
-      <c r="L86" s="3" t="inlineStr"/>
-      <c r="M86" s="3" t="inlineStr"/>
-      <c r="N86" s="3" t="inlineStr"/>
-      <c r="O86" s="3" t="inlineStr"/>
-      <c r="P86" s="3" t="inlineStr"/>
+      <c r="B86" s="3" t="n">
+        <v>977.5599999999999</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>672.58</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>313.76</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>469.19</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>95.074</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>968.12</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>1148.1</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>308.16</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>565.91</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>716.16</v>
+      </c>
+      <c r="L86" s="3" t="n">
+        <v>863.87</v>
+      </c>
+      <c r="M86" s="3" t="n">
+        <v>1532.9</v>
+      </c>
+      <c r="N86" s="3" t="n">
+        <v>275.32</v>
+      </c>
+      <c r="O86" s="3" t="n">
+        <v>611.59</v>
+      </c>
+      <c r="P86" s="3" t="n">
+        <v>1763.9</v>
+      </c>
       <c r="Q86" s="3" t="n">
         <v>628.64</v>
       </c>
       <c r="R86" s="3" t="n">
         <v>1758.1</v>
       </c>
-      <c r="S86" s="3" t="inlineStr"/>
+      <c r="S86" s="3" t="n">
+        <v>199.76</v>
+      </c>
       <c r="T86" s="3" t="n">
         <v>520.04</v>
       </c>
@@ -5081,7 +5891,9 @@
       <c r="R87" s="4" t="n">
         <v>1669.3</v>
       </c>
-      <c r="S87" s="4" t="inlineStr"/>
+      <c r="S87" s="4" t="n">
+        <v>228.13</v>
+      </c>
       <c r="T87" s="4" t="n">
         <v>586.6900000000001</v>
       </c>
@@ -5093,38 +5905,60 @@
       <c r="A88" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="inlineStr"/>
+      <c r="B88" s="4" t="n">
+        <v>999.6</v>
+      </c>
       <c r="C88" s="4" t="n">
         <v>632.96</v>
       </c>
-      <c r="D88" s="4" t="inlineStr"/>
+      <c r="D88" s="4" t="n">
+        <v>320.7</v>
+      </c>
       <c r="E88" s="4" t="n">
         <v>500.37</v>
       </c>
-      <c r="F88" s="4" t="inlineStr"/>
-      <c r="G88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="n">
+        <v>93.96899999999999</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>995.0700000000001</v>
+      </c>
       <c r="H88" s="4" t="n">
         <v>1039.1</v>
       </c>
-      <c r="I88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="n">
+        <v>317.2</v>
+      </c>
       <c r="J88" s="4" t="n">
         <v>587.46</v>
       </c>
-      <c r="K88" s="4" t="inlineStr"/>
-      <c r="L88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="n">
+        <v>684.47</v>
+      </c>
+      <c r="L88" s="4" t="n">
+        <v>927.74</v>
+      </c>
       <c r="M88" s="4" t="n">
         <v>1388.9</v>
       </c>
-      <c r="N88" s="4" t="inlineStr"/>
-      <c r="O88" s="4" t="inlineStr"/>
+      <c r="N88" s="4" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="O88" s="4" t="n">
+        <v>637.54</v>
+      </c>
       <c r="P88" s="4" t="n">
         <v>1758.4</v>
       </c>
-      <c r="Q88" s="4" t="inlineStr"/>
+      <c r="Q88" s="4" t="n">
+        <v>714.98</v>
+      </c>
       <c r="R88" s="4" t="n">
         <v>1673.4</v>
       </c>
-      <c r="S88" s="4" t="inlineStr"/>
+      <c r="S88" s="4" t="n">
+        <v>226.23</v>
+      </c>
       <c r="T88" s="4" t="n">
         <v>586.0700000000001</v>
       </c>
@@ -5143,12 +5977,18 @@
       <c r="D89" s="4" t="n">
         <v>322.12</v>
       </c>
-      <c r="E89" s="4" t="inlineStr"/>
-      <c r="F89" s="4" t="inlineStr"/>
+      <c r="E89" s="4" t="n">
+        <v>499.57</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>93.992</v>
+      </c>
       <c r="G89" s="4" t="n">
         <v>999.39</v>
       </c>
-      <c r="H89" s="4" t="inlineStr"/>
+      <c r="H89" s="4" t="n">
+        <v>1038</v>
+      </c>
       <c r="I89" s="4" t="n">
         <v>317.97</v>
       </c>
@@ -5161,7 +6001,9 @@
       <c r="L89" s="4" t="n">
         <v>930.8200000000001</v>
       </c>
-      <c r="M89" s="4" t="inlineStr"/>
+      <c r="M89" s="4" t="n">
+        <v>1387.6</v>
+      </c>
       <c r="N89" s="4" t="n">
         <v>296.1</v>
       </c>
@@ -5224,7 +6066,9 @@
       <c r="L90" s="4" t="n">
         <v>933.29</v>
       </c>
-      <c r="M90" s="4" t="inlineStr"/>
+      <c r="M90" s="4" t="n">
+        <v>1396.8</v>
+      </c>
       <c r="N90" s="4" t="n">
         <v>297.23</v>
       </c>
@@ -5237,7 +6081,9 @@
       <c r="Q90" s="4" t="n">
         <v>715.16</v>
       </c>
-      <c r="R90" s="4" t="inlineStr"/>
+      <c r="R90" s="4" t="n">
+        <v>1665.7</v>
+      </c>
       <c r="S90" s="4" t="n">
         <v>227.6</v>
       </c>
@@ -5250,34 +6096,64 @@
       <c r="A91" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="inlineStr"/>
+      <c r="B91" s="4" t="n">
+        <v>1009.1</v>
+      </c>
       <c r="C91" s="4" t="n">
         <v>633.59</v>
       </c>
-      <c r="D91" s="4" t="inlineStr"/>
-      <c r="E91" s="4" t="inlineStr"/>
-      <c r="F91" s="4" t="inlineStr"/>
-      <c r="G91" s="4" t="inlineStr"/>
+      <c r="D91" s="4" t="n">
+        <v>324.18</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>503.57</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>94.77800000000001</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>1004.7</v>
+      </c>
       <c r="H91" s="4" t="n">
         <v>1043</v>
       </c>
-      <c r="I91" s="4" t="inlineStr"/>
-      <c r="J91" s="4" t="inlineStr"/>
-      <c r="K91" s="4" t="inlineStr"/>
-      <c r="L91" s="4" t="inlineStr"/>
+      <c r="I91" s="4" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>591.83</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>692.54</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>935.15</v>
+      </c>
       <c r="M91" s="4" t="n">
         <v>1395</v>
       </c>
-      <c r="N91" s="4" t="inlineStr"/>
-      <c r="O91" s="4" t="inlineStr"/>
-      <c r="P91" s="4" t="inlineStr"/>
-      <c r="Q91" s="4" t="inlineStr"/>
-      <c r="R91" s="4" t="inlineStr"/>
+      <c r="N91" s="4" t="n">
+        <v>297.88</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>642.5599999999999</v>
+      </c>
+      <c r="P91" s="4" t="n">
+        <v>1778</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>718.63</v>
+      </c>
+      <c r="R91" s="4" t="n">
+        <v>1674.1</v>
+      </c>
       <c r="S91" s="4" t="n">
         <v>227.76</v>
       </c>
       <c r="T91" s="4" t="inlineStr"/>
-      <c r="U91" s="4" t="inlineStr"/>
+      <c r="U91" s="4" t="n">
+        <v>3304.1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
@@ -5301,7 +6177,9 @@
       <c r="G92" s="3" t="n">
         <v>958.29</v>
       </c>
-      <c r="H92" s="3" t="inlineStr"/>
+      <c r="H92" s="3" t="n">
+        <v>1031.8</v>
+      </c>
       <c r="I92" s="3" t="n">
         <v>308.02</v>
       </c>
@@ -5314,7 +6192,9 @@
       <c r="L92" s="3" t="n">
         <v>891.59</v>
       </c>
-      <c r="M92" s="3" t="inlineStr"/>
+      <c r="M92" s="3" t="n">
+        <v>1382.2</v>
+      </c>
       <c r="N92" s="3" t="n">
         <v>283.91</v>
       </c>
@@ -5407,75 +6287,123 @@
       <c r="A94" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="inlineStr"/>
+      <c r="B94" s="3" t="n">
+        <v>963.01</v>
+      </c>
       <c r="C94" s="3" t="n">
         <v>637.3</v>
       </c>
       <c r="D94" s="3" t="n">
         <v>309.07</v>
       </c>
-      <c r="E94" s="3" t="inlineStr"/>
+      <c r="E94" s="3" t="n">
+        <v>463.21</v>
+      </c>
       <c r="F94" s="3" t="n">
         <v>89.574</v>
       </c>
-      <c r="G94" s="3" t="inlineStr"/>
+      <c r="G94" s="3" t="n">
+        <v>953.55</v>
+      </c>
       <c r="H94" s="3" t="n">
         <v>1037.4</v>
       </c>
-      <c r="I94" s="3" t="inlineStr"/>
-      <c r="J94" s="3" t="inlineStr"/>
+      <c r="I94" s="3" t="n">
+        <v>306.59</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>548.35</v>
+      </c>
       <c r="K94" s="3" t="n">
         <v>646.84</v>
       </c>
-      <c r="L94" s="3" t="inlineStr"/>
+      <c r="L94" s="3" t="n">
+        <v>884.71</v>
+      </c>
       <c r="M94" s="3" t="n">
         <v>1390.6</v>
       </c>
-      <c r="N94" s="3" t="inlineStr"/>
-      <c r="O94" s="3" t="inlineStr"/>
+      <c r="N94" s="3" t="n">
+        <v>281.74</v>
+      </c>
+      <c r="O94" s="3" t="n">
+        <v>598.8099999999999</v>
+      </c>
       <c r="P94" s="3" t="n">
         <v>1666.3</v>
       </c>
-      <c r="Q94" s="3" t="inlineStr"/>
+      <c r="Q94" s="3" t="n">
+        <v>678.29</v>
+      </c>
       <c r="R94" s="3" t="n">
         <v>1666.9</v>
       </c>
       <c r="S94" s="3" t="inlineStr"/>
-      <c r="T94" s="3" t="inlineStr"/>
-      <c r="U94" s="3" t="inlineStr"/>
+      <c r="T94" s="3" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="U94" s="3" t="n">
+        <v>3093.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="inlineStr"/>
+      <c r="B95" s="3" t="n">
+        <v>988.95</v>
+      </c>
       <c r="C95" s="3" t="n">
         <v>636.41</v>
       </c>
       <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="inlineStr"/>
-      <c r="F95" s="3" t="inlineStr"/>
-      <c r="G95" s="3" t="inlineStr"/>
+      <c r="E95" s="3" t="n">
+        <v>477.65</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>91.94199999999999</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>983.4299999999999</v>
+      </c>
       <c r="H95" s="3" t="n">
         <v>1043.6</v>
       </c>
       <c r="I95" s="3" t="inlineStr"/>
-      <c r="J95" s="3" t="inlineStr"/>
-      <c r="K95" s="3" t="inlineStr"/>
-      <c r="L95" s="3" t="inlineStr"/>
+      <c r="J95" s="3" t="n">
+        <v>565.96</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>670.39</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>909.98</v>
+      </c>
       <c r="M95" s="3" t="n">
         <v>1394.2</v>
       </c>
-      <c r="N95" s="3" t="inlineStr"/>
-      <c r="O95" s="3" t="inlineStr"/>
-      <c r="P95" s="3" t="inlineStr"/>
-      <c r="Q95" s="3" t="inlineStr"/>
+      <c r="N95" s="3" t="n">
+        <v>290.07</v>
+      </c>
+      <c r="O95" s="3" t="n">
+        <v>616.88</v>
+      </c>
+      <c r="P95" s="3" t="n">
+        <v>1715.6</v>
+      </c>
+      <c r="Q95" s="3" t="n">
+        <v>701.0700000000001</v>
+      </c>
       <c r="R95" s="3" t="n">
         <v>1671.7</v>
       </c>
       <c r="S95" s="3" t="inlineStr"/>
-      <c r="T95" s="3" t="inlineStr"/>
-      <c r="U95" s="3" t="inlineStr"/>
+      <c r="T95" s="3" t="n">
+        <v>567.34</v>
+      </c>
+      <c r="U95" s="3" t="n">
+        <v>3201.4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
@@ -5484,7 +6412,9 @@
       <c r="B96" s="3" t="n">
         <v>982.95</v>
       </c>
-      <c r="C96" s="3" t="inlineStr"/>
+      <c r="C96" s="3" t="n">
+        <v>639.65</v>
+      </c>
       <c r="D96" s="3" t="n">
         <v>312.88</v>
       </c>
@@ -5497,7 +6427,9 @@
       <c r="G96" s="3" t="n">
         <v>976.04</v>
       </c>
-      <c r="H96" s="3" t="inlineStr"/>
+      <c r="H96" s="3" t="n">
+        <v>1049.8</v>
+      </c>
       <c r="I96" s="3" t="n">
         <v>309.8</v>
       </c>
@@ -5510,7 +6442,9 @@
       <c r="L96" s="3" t="n">
         <v>900.9299999999999</v>
       </c>
-      <c r="M96" s="3" t="inlineStr"/>
+      <c r="M96" s="3" t="n">
+        <v>1398.9</v>
+      </c>
       <c r="N96" s="3" t="n">
         <v>286.99</v>
       </c>
@@ -5547,7 +6481,9 @@
       <c r="D97" s="4" t="n">
         <v>320.99</v>
       </c>
-      <c r="E97" s="4" t="inlineStr"/>
+      <c r="E97" s="4" t="n">
+        <v>492.81</v>
+      </c>
       <c r="F97" s="4" t="n">
         <v>93.133</v>
       </c>
@@ -5560,7 +6496,9 @@
       <c r="I97" s="4" t="n">
         <v>317.72</v>
       </c>
-      <c r="J97" s="4" t="inlineStr"/>
+      <c r="J97" s="4" t="n">
+        <v>580.51</v>
+      </c>
       <c r="K97" s="4" t="n">
         <v>678.66</v>
       </c>
@@ -5573,12 +6511,18 @@
       <c r="N97" s="4" t="n">
         <v>294.36</v>
       </c>
-      <c r="O97" s="4" t="inlineStr"/>
-      <c r="P97" s="4" t="inlineStr"/>
+      <c r="O97" s="4" t="n">
+        <v>631.4299999999999</v>
+      </c>
+      <c r="P97" s="4" t="n">
+        <v>1746</v>
+      </c>
       <c r="Q97" s="4" t="n">
         <v>708.6799999999999</v>
       </c>
-      <c r="R97" s="4" t="inlineStr"/>
+      <c r="R97" s="4" t="n">
+        <v>1649.6</v>
+      </c>
       <c r="S97" s="4" t="n">
         <v>225.62</v>
       </c>
@@ -5658,31 +6602,49 @@
       <c r="A99" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="inlineStr"/>
+      <c r="B99" s="4" t="n">
+        <v>981.3</v>
+      </c>
       <c r="C99" s="4" t="n">
         <v>632.25</v>
       </c>
-      <c r="D99" s="4" t="inlineStr"/>
+      <c r="D99" s="4" t="n">
+        <v>314.96</v>
+      </c>
       <c r="E99" s="4" t="n">
         <v>479.4</v>
       </c>
-      <c r="F99" s="4" t="inlineStr"/>
-      <c r="G99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="n">
+        <v>91.092</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>973.15</v>
+      </c>
       <c r="H99" s="4" t="inlineStr"/>
       <c r="I99" s="4" t="n">
         <v>312.86</v>
       </c>
-      <c r="J99" s="4" t="inlineStr"/>
-      <c r="K99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="n">
+        <v>564.09</v>
+      </c>
+      <c r="K99" s="4" t="n">
+        <v>656.09</v>
+      </c>
       <c r="L99" s="4" t="n">
         <v>910.3</v>
       </c>
-      <c r="M99" s="4" t="inlineStr"/>
+      <c r="M99" s="4" t="n">
+        <v>1378.7</v>
+      </c>
       <c r="N99" s="4" t="n">
         <v>289.9</v>
       </c>
-      <c r="O99" s="4" t="inlineStr"/>
-      <c r="P99" s="4" t="inlineStr"/>
+      <c r="O99" s="4" t="n">
+        <v>615.67</v>
+      </c>
+      <c r="P99" s="4" t="n">
+        <v>1703</v>
+      </c>
       <c r="Q99" s="4" t="n">
         <v>702.25</v>
       </c>
@@ -5703,43 +6665,63 @@
       <c r="A100" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="inlineStr"/>
+      <c r="B100" s="4" t="n">
+        <v>1004</v>
+      </c>
       <c r="C100" s="4" t="n">
         <v>632.02</v>
       </c>
-      <c r="D100" s="4" t="inlineStr"/>
+      <c r="D100" s="4" t="n">
+        <v>322.05</v>
+      </c>
       <c r="E100" s="4" t="n">
         <v>491.43</v>
       </c>
-      <c r="F100" s="4" t="inlineStr"/>
-      <c r="G100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="n">
+        <v>93.203</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>999.4299999999999</v>
+      </c>
       <c r="H100" s="4" t="n">
         <v>1034.8</v>
       </c>
-      <c r="I100" s="4" t="inlineStr"/>
+      <c r="I100" s="4" t="n">
+        <v>318.2</v>
+      </c>
       <c r="J100" s="4" t="n">
         <v>579.39</v>
       </c>
       <c r="K100" s="4" t="n">
         <v>677.92</v>
       </c>
-      <c r="L100" s="4" t="inlineStr"/>
+      <c r="L100" s="4" t="n">
+        <v>930.62</v>
+      </c>
       <c r="M100" s="4" t="n">
         <v>1381</v>
       </c>
-      <c r="N100" s="4" t="inlineStr"/>
+      <c r="N100" s="4" t="n">
+        <v>296.62</v>
+      </c>
       <c r="O100" s="4" t="n">
         <v>630.5</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>1742.5</v>
       </c>
-      <c r="Q100" s="4" t="inlineStr"/>
+      <c r="Q100" s="4" t="n">
+        <v>715.04</v>
+      </c>
       <c r="R100" s="4" t="n">
         <v>1660.3</v>
       </c>
-      <c r="S100" s="4" t="inlineStr"/>
-      <c r="T100" s="4" t="inlineStr"/>
+      <c r="S100" s="4" t="n">
+        <v>228.19</v>
+      </c>
+      <c r="T100" s="4" t="n">
+        <v>580.47</v>
+      </c>
       <c r="U100" s="4" t="inlineStr"/>
     </row>
     <row r="101">
@@ -5750,8 +6732,12 @@
         <v>981.51</v>
       </c>
       <c r="C101" s="4" t="inlineStr"/>
-      <c r="D101" s="4" t="inlineStr"/>
-      <c r="E101" s="4" t="inlineStr"/>
+      <c r="D101" s="4" t="n">
+        <v>315.02</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>478.86</v>
+      </c>
       <c r="F101" s="4" t="n">
         <v>91.51900000000001</v>
       </c>
@@ -5759,62 +6745,92 @@
         <v>976.49</v>
       </c>
       <c r="H101" s="4" t="inlineStr"/>
-      <c r="I101" s="4" t="inlineStr"/>
+      <c r="I101" s="4" t="n">
+        <v>311.4</v>
+      </c>
       <c r="J101" s="4" t="n">
         <v>565.59</v>
       </c>
       <c r="K101" s="4" t="n">
         <v>665.34</v>
       </c>
-      <c r="L101" s="4" t="inlineStr"/>
+      <c r="L101" s="4" t="n">
+        <v>906.76</v>
+      </c>
       <c r="M101" s="4" t="n">
         <v>1387.2</v>
       </c>
-      <c r="N101" s="4" t="inlineStr"/>
-      <c r="O101" s="4" t="inlineStr"/>
+      <c r="N101" s="4" t="n">
+        <v>288.77</v>
+      </c>
+      <c r="O101" s="4" t="n">
+        <v>615.71</v>
+      </c>
       <c r="P101" s="4" t="n">
         <v>1706.5</v>
       </c>
-      <c r="Q101" s="4" t="inlineStr"/>
+      <c r="Q101" s="4" t="n">
+        <v>696.23</v>
+      </c>
       <c r="R101" s="4" t="n">
         <v>1664.4</v>
       </c>
-      <c r="S101" s="4" t="inlineStr"/>
-      <c r="T101" s="4" t="inlineStr"/>
-      <c r="U101" s="4" t="inlineStr"/>
+      <c r="S101" s="4" t="n">
+        <v>221.59</v>
+      </c>
+      <c r="T101" s="4" t="n">
+        <v>564.85</v>
+      </c>
+      <c r="U101" s="4" t="n">
+        <v>3175.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="inlineStr"/>
+      <c r="B102" s="3" t="n">
+        <v>1045.3</v>
+      </c>
       <c r="C102" s="3" t="n">
         <v>632.65</v>
       </c>
-      <c r="D102" s="3" t="inlineStr"/>
+      <c r="D102" s="3" t="n">
+        <v>335.16</v>
+      </c>
       <c r="E102" s="3" t="n">
         <v>510.17</v>
       </c>
       <c r="F102" s="3" t="n">
         <v>97.745</v>
       </c>
-      <c r="G102" s="3" t="inlineStr"/>
+      <c r="G102" s="3" t="n">
+        <v>1038.3</v>
+      </c>
       <c r="H102" s="3" t="n">
         <v>1083.6</v>
       </c>
-      <c r="I102" s="3" t="inlineStr"/>
+      <c r="I102" s="3" t="n">
+        <v>330.47</v>
+      </c>
       <c r="J102" s="3" t="n">
         <v>610.46</v>
       </c>
       <c r="K102" s="3" t="n">
         <v>732.61</v>
       </c>
-      <c r="L102" s="3" t="inlineStr"/>
+      <c r="L102" s="3" t="n">
+        <v>956.98</v>
+      </c>
       <c r="M102" s="3" t="n">
         <v>1463.4</v>
       </c>
-      <c r="N102" s="3" t="inlineStr"/>
-      <c r="O102" s="3" t="inlineStr"/>
+      <c r="N102" s="3" t="n">
+        <v>304.67</v>
+      </c>
+      <c r="O102" s="3" t="n">
+        <v>665.5599999999999</v>
+      </c>
       <c r="P102" s="3" t="n">
         <v>1873.5</v>
       </c>
@@ -5901,18 +6917,24 @@
       <c r="A104" s="3" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="inlineStr"/>
+      <c r="B104" s="3" t="n">
+        <v>1033.6</v>
+      </c>
       <c r="C104" s="3" t="n">
         <v>646.48</v>
       </c>
-      <c r="D104" s="3" t="inlineStr"/>
+      <c r="D104" s="3" t="n">
+        <v>331.88</v>
+      </c>
       <c r="E104" s="3" t="n">
         <v>509.86</v>
       </c>
       <c r="F104" s="3" t="n">
         <v>98.35599999999999</v>
       </c>
-      <c r="G104" s="3" t="inlineStr"/>
+      <c r="G104" s="3" t="n">
+        <v>1026</v>
+      </c>
       <c r="H104" s="3" t="n">
         <v>1095.9</v>
       </c>
@@ -5923,11 +6945,15 @@
       <c r="K104" s="3" t="n">
         <v>731.11</v>
       </c>
-      <c r="L104" s="3" t="inlineStr"/>
+      <c r="L104" s="3" t="n">
+        <v>944.8</v>
+      </c>
       <c r="M104" s="3" t="n">
         <v>1479.9</v>
       </c>
-      <c r="N104" s="3" t="inlineStr"/>
+      <c r="N104" s="3" t="n">
+        <v>300.86</v>
+      </c>
       <c r="O104" s="3" t="n">
         <v>660.47</v>
       </c>
@@ -5940,7 +6966,9 @@
       <c r="R104" s="3" t="n">
         <v>1766.3</v>
       </c>
-      <c r="S104" s="3" t="inlineStr"/>
+      <c r="S104" s="3" t="n">
+        <v>226.74</v>
+      </c>
       <c r="T104" s="3" t="inlineStr"/>
       <c r="U104" s="3" t="n">
         <v>3392.2</v>
@@ -5960,22 +6988,34 @@
         <v>334.35</v>
       </c>
       <c r="E105" s="3" t="inlineStr"/>
-      <c r="F105" s="3" t="inlineStr"/>
+      <c r="F105" s="3" t="n">
+        <v>97.04000000000001</v>
+      </c>
       <c r="G105" s="3" t="n">
         <v>1034.8</v>
       </c>
-      <c r="H105" s="3" t="inlineStr"/>
+      <c r="H105" s="3" t="n">
+        <v>1074.2</v>
+      </c>
       <c r="I105" s="3" t="n">
         <v>329.42</v>
       </c>
-      <c r="J105" s="3" t="inlineStr"/>
+      <c r="J105" s="3" t="n">
+        <v>605.1</v>
+      </c>
       <c r="K105" s="3" t="inlineStr"/>
-      <c r="L105" s="3" t="inlineStr"/>
-      <c r="M105" s="3" t="inlineStr"/>
+      <c r="L105" s="3" t="n">
+        <v>956.92</v>
+      </c>
+      <c r="M105" s="3" t="n">
+        <v>1450.4</v>
+      </c>
       <c r="N105" s="3" t="n">
         <v>304.53</v>
       </c>
-      <c r="O105" s="3" t="inlineStr"/>
+      <c r="O105" s="3" t="n">
+        <v>660.21</v>
+      </c>
       <c r="P105" s="3" t="inlineStr"/>
       <c r="Q105" s="3" t="inlineStr"/>
       <c r="R105" s="3" t="n">
@@ -5983,7 +7023,9 @@
       </c>
       <c r="S105" s="3" t="inlineStr"/>
       <c r="T105" s="3" t="inlineStr"/>
-      <c r="U105" s="3" t="inlineStr"/>
+      <c r="U105" s="3" t="n">
+        <v>3493.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
@@ -5992,7 +7034,9 @@
       <c r="B106" s="3" t="n">
         <v>1039.7</v>
       </c>
-      <c r="C106" s="3" t="inlineStr"/>
+      <c r="C106" s="3" t="n">
+        <v>655.37</v>
+      </c>
       <c r="D106" s="3" t="n">
         <v>333.99</v>
       </c>
@@ -6001,16 +7045,22 @@
       <c r="G106" s="3" t="n">
         <v>1032.7</v>
       </c>
-      <c r="H106" s="3" t="inlineStr"/>
+      <c r="H106" s="3" t="n">
+        <v>1110.6</v>
+      </c>
       <c r="I106" s="3" t="n">
         <v>328.77</v>
       </c>
-      <c r="J106" s="3" t="inlineStr"/>
+      <c r="J106" s="3" t="n">
+        <v>611.67</v>
+      </c>
       <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="n">
         <v>948.54</v>
       </c>
-      <c r="M106" s="3" t="inlineStr"/>
+      <c r="M106" s="3" t="n">
+        <v>1495.1</v>
+      </c>
       <c r="N106" s="3" t="n">
         <v>302.1</v>
       </c>
@@ -6039,7 +7089,9 @@
       <c r="B107" s="4" t="n">
         <v>1109.2</v>
       </c>
-      <c r="C107" s="4" t="inlineStr"/>
+      <c r="C107" s="4" t="n">
+        <v>684.9400000000001</v>
+      </c>
       <c r="D107" s="4" t="n">
         <v>355.93</v>
       </c>
@@ -6082,7 +7134,9 @@
       <c r="Q107" s="4" t="n">
         <v>691.79</v>
       </c>
-      <c r="R107" s="4" t="inlineStr"/>
+      <c r="R107" s="4" t="n">
+        <v>1832.4</v>
+      </c>
       <c r="S107" s="4" t="n">
         <v>219.53</v>
       </c>
@@ -6097,33 +7151,63 @@
       <c r="A108" s="4" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="inlineStr"/>
+      <c r="B108" s="4" t="n">
+        <v>1101.8</v>
+      </c>
       <c r="C108" s="4" t="n">
         <v>688.6</v>
       </c>
-      <c r="D108" s="4" t="inlineStr"/>
-      <c r="E108" s="4" t="inlineStr"/>
-      <c r="F108" s="4" t="inlineStr"/>
-      <c r="G108" s="4" t="inlineStr"/>
+      <c r="D108" s="4" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>538.05</v>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>111.54</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>1082.5</v>
+      </c>
       <c r="H108" s="4" t="n">
         <v>1197.9</v>
       </c>
-      <c r="I108" s="4" t="inlineStr"/>
-      <c r="J108" s="4" t="inlineStr"/>
-      <c r="K108" s="4" t="inlineStr"/>
-      <c r="L108" s="4" t="inlineStr"/>
+      <c r="I108" s="4" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="J108" s="4" t="n">
+        <v>652.75</v>
+      </c>
+      <c r="K108" s="4" t="n">
+        <v>842.64</v>
+      </c>
+      <c r="L108" s="4" t="n">
+        <v>949.24</v>
+      </c>
       <c r="M108" s="4" t="n">
         <v>1608.5</v>
       </c>
-      <c r="N108" s="4" t="inlineStr"/>
-      <c r="O108" s="4" t="inlineStr"/>
-      <c r="P108" s="4" t="inlineStr"/>
-      <c r="Q108" s="4" t="inlineStr"/>
+      <c r="N108" s="4" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="O108" s="4" t="n">
+        <v>698.39</v>
+      </c>
+      <c r="P108" s="4" t="n">
+        <v>2029.6</v>
+      </c>
+      <c r="Q108" s="4" t="n">
+        <v>685.65</v>
+      </c>
       <c r="R108" s="4" t="n">
         <v>1828.5</v>
       </c>
-      <c r="S108" s="4" t="inlineStr"/>
-      <c r="T108" s="4" t="inlineStr"/>
+      <c r="S108" s="4" t="n">
+        <v>217.32</v>
+      </c>
+      <c r="T108" s="4" t="n">
+        <v>576.12</v>
+      </c>
       <c r="U108" s="4" t="inlineStr"/>
     </row>
     <row r="109">
@@ -6172,7 +7256,9 @@
       <c r="O109" s="4" t="n">
         <v>716.91</v>
       </c>
-      <c r="P109" s="4" t="inlineStr"/>
+      <c r="P109" s="4" t="n">
+        <v>2083.1</v>
+      </c>
       <c r="Q109" s="4" t="n">
         <v>699.59</v>
       </c>
@@ -6196,7 +7282,9 @@
       <c r="B110" s="4" t="n">
         <v>1122.6</v>
       </c>
-      <c r="C110" s="4" t="inlineStr"/>
+      <c r="C110" s="4" t="n">
+        <v>684.72</v>
+      </c>
       <c r="D110" s="4" t="n">
         <v>359.44</v>
       </c>
@@ -6209,7 +7297,9 @@
       <c r="G110" s="4" t="n">
         <v>1101.3</v>
       </c>
-      <c r="H110" s="4" t="inlineStr"/>
+      <c r="H110" s="4" t="n">
+        <v>1188.7</v>
+      </c>
       <c r="I110" s="4" t="n">
         <v>350.55</v>
       </c>
@@ -6235,7 +7325,9 @@
       <c r="Q110" s="4" t="n">
         <v>699.5</v>
       </c>
-      <c r="R110" s="4" t="inlineStr"/>
+      <c r="R110" s="4" t="n">
+        <v>1821.9</v>
+      </c>
       <c r="S110" s="4" t="n">
         <v>221.34</v>
       </c>
@@ -6437,9 +7529,7 @@
       <c r="T113" s="3" t="n">
         <v>597.49</v>
       </c>
-      <c r="U113" s="3" t="n">
-        <v>3474.5</v>
-      </c>
+      <c r="U113" s="3" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
@@ -6511,23 +7601,37 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="inlineStr"/>
-      <c r="C115" s="3" t="inlineStr"/>
+      <c r="C115" s="3" t="n">
+        <v>681.5</v>
+      </c>
       <c r="D115" s="3" t="inlineStr"/>
-      <c r="E115" s="3" t="inlineStr"/>
-      <c r="F115" s="3" t="inlineStr"/>
+      <c r="E115" s="3" t="n">
+        <v>553.67</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>115.49</v>
+      </c>
       <c r="G115" s="3" t="inlineStr"/>
       <c r="H115" s="3" t="inlineStr"/>
       <c r="I115" s="3" t="inlineStr"/>
       <c r="J115" s="3" t="inlineStr"/>
       <c r="K115" s="3" t="inlineStr"/>
-      <c r="L115" s="3" t="inlineStr"/>
+      <c r="L115" s="3" t="n">
+        <v>959.73</v>
+      </c>
       <c r="M115" s="3" t="inlineStr"/>
-      <c r="N115" s="3" t="inlineStr"/>
+      <c r="N115" s="3" t="n">
+        <v>305.58</v>
+      </c>
       <c r="O115" s="3" t="inlineStr"/>
       <c r="P115" s="3" t="inlineStr"/>
       <c r="Q115" s="3" t="inlineStr"/>
-      <c r="R115" s="3" t="inlineStr"/>
-      <c r="S115" s="3" t="inlineStr"/>
+      <c r="R115" s="3" t="n">
+        <v>1815.8</v>
+      </c>
+      <c r="S115" s="3" t="n">
+        <v>218.72</v>
+      </c>
       <c r="T115" s="3" t="inlineStr"/>
       <c r="U115" s="3" t="inlineStr"/>
     </row>
@@ -6538,7 +7642,9 @@
       <c r="B116" s="3" t="n">
         <v>1181.5</v>
       </c>
-      <c r="C116" s="3" t="inlineStr"/>
+      <c r="C116" s="3" t="n">
+        <v>686.9299999999999</v>
+      </c>
       <c r="D116" s="3" t="n">
         <v>379.14</v>
       </c>
@@ -6551,7 +7657,9 @@
       <c r="G116" s="3" t="n">
         <v>1154.4</v>
       </c>
-      <c r="H116" s="3" t="inlineStr"/>
+      <c r="H116" s="3" t="n">
+        <v>1225.6</v>
+      </c>
       <c r="I116" s="3" t="n">
         <v>367.22</v>
       </c>
@@ -6582,7 +7690,9 @@
       <c r="R116" s="3" t="n">
         <v>1824.5</v>
       </c>
-      <c r="S116" s="3" t="inlineStr"/>
+      <c r="S116" s="3" t="n">
+        <v>224.88</v>
+      </c>
       <c r="T116" s="3" t="n">
         <v>597.8</v>
       </c>
@@ -6597,7 +7707,9 @@
       <c r="B117" s="4" t="n">
         <v>1175.9</v>
       </c>
-      <c r="C117" s="4" t="inlineStr"/>
+      <c r="C117" s="4" t="n">
+        <v>707.91</v>
+      </c>
       <c r="D117" s="4" t="n">
         <v>376.96</v>
       </c>
@@ -6611,7 +7723,9 @@
         <v>1141.1</v>
       </c>
       <c r="H117" s="4" t="inlineStr"/>
-      <c r="I117" s="4" t="inlineStr"/>
+      <c r="I117" s="4" t="n">
+        <v>366.89</v>
+      </c>
       <c r="J117" s="4" t="n">
         <v>713.25</v>
       </c>
@@ -6621,7 +7735,9 @@
       <c r="L117" s="4" t="n">
         <v>965.35</v>
       </c>
-      <c r="M117" s="4" t="inlineStr"/>
+      <c r="M117" s="4" t="n">
+        <v>1672.2</v>
+      </c>
       <c r="N117" s="4" t="n">
         <v>308.09</v>
       </c>
@@ -6631,23 +7747,35 @@
       <c r="P117" s="4" t="n">
         <v>2145.5</v>
       </c>
-      <c r="Q117" s="4" t="inlineStr"/>
-      <c r="R117" s="4" t="inlineStr"/>
-      <c r="S117" s="4" t="inlineStr"/>
-      <c r="T117" s="4" t="inlineStr"/>
+      <c r="Q117" s="4" t="n">
+        <v>697.01</v>
+      </c>
+      <c r="R117" s="4" t="n">
+        <v>1877.8</v>
+      </c>
+      <c r="S117" s="4" t="n">
+        <v>221.76</v>
+      </c>
+      <c r="T117" s="4" t="n">
+        <v>591.7</v>
+      </c>
       <c r="U117" s="4" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="inlineStr"/>
+      <c r="B118" s="4" t="n">
+        <v>1145.4</v>
+      </c>
       <c r="C118" s="4" t="n">
         <v>716.0700000000001</v>
       </c>
       <c r="D118" s="4" t="inlineStr"/>
       <c r="E118" s="4" t="inlineStr"/>
-      <c r="F118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="n">
+        <v>121.37</v>
+      </c>
       <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" s="4" t="n">
         <v>1270.8</v>
@@ -6655,18 +7783,28 @@
       <c r="I118" s="4" t="inlineStr"/>
       <c r="J118" s="4" t="inlineStr"/>
       <c r="K118" s="4" t="inlineStr"/>
-      <c r="L118" s="4" t="inlineStr"/>
-      <c r="M118" s="4" t="inlineStr"/>
+      <c r="L118" s="4" t="n">
+        <v>948.58</v>
+      </c>
+      <c r="M118" s="4" t="n">
+        <v>1689.7</v>
+      </c>
       <c r="N118" s="4" t="inlineStr"/>
-      <c r="O118" s="4" t="inlineStr"/>
-      <c r="P118" s="4" t="inlineStr"/>
+      <c r="O118" s="4" t="n">
+        <v>726.33</v>
+      </c>
+      <c r="P118" s="4" t="n">
+        <v>2123.8</v>
+      </c>
       <c r="Q118" s="4" t="inlineStr"/>
       <c r="R118" s="4" t="n">
         <v>1863.9</v>
       </c>
       <c r="S118" s="4" t="inlineStr"/>
       <c r="T118" s="4" t="inlineStr"/>
-      <c r="U118" s="4" t="inlineStr"/>
+      <c r="U118" s="4" t="n">
+        <v>3336.4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="n">
@@ -6714,7 +7852,9 @@
       <c r="O119" s="4" t="n">
         <v>744.28</v>
       </c>
-      <c r="P119" s="4" t="inlineStr"/>
+      <c r="P119" s="4" t="n">
+        <v>2169.8</v>
+      </c>
       <c r="Q119" s="4" t="n">
         <v>689.96</v>
       </c>
@@ -6803,7 +7943,9 @@
       <c r="B121" s="4" t="n">
         <v>1170.8</v>
       </c>
-      <c r="C121" s="4" t="inlineStr"/>
+      <c r="C121" s="4" t="n">
+        <v>716.61</v>
+      </c>
       <c r="D121" s="4" t="n">
         <v>375.92</v>
       </c>
@@ -6911,7 +8053,9 @@
       <c r="Q122" s="3" t="n">
         <v>672.95</v>
       </c>
-      <c r="R122" s="3" t="inlineStr"/>
+      <c r="R122" s="3" t="n">
+        <v>1831.3</v>
+      </c>
       <c r="S122" s="3" t="n">
         <v>213.67</v>
       </c>
@@ -6997,11 +8141,13 @@
       <c r="C124" s="3" t="n">
         <v>693.74</v>
       </c>
-      <c r="D124" s="3" t="n">
-        <v>370.36</v>
-      </c>
-      <c r="E124" s="3" t="inlineStr"/>
-      <c r="F124" s="3" t="inlineStr"/>
+      <c r="D124" s="3" t="inlineStr"/>
+      <c r="E124" s="3" t="n">
+        <v>557.88</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>117.86</v>
+      </c>
       <c r="G124" s="3" t="n">
         <v>1124.8</v>
       </c>
@@ -7011,12 +8157,18 @@
       <c r="I124" s="3" t="n">
         <v>358</v>
       </c>
-      <c r="J124" s="3" t="inlineStr"/>
-      <c r="K124" s="3" t="inlineStr"/>
+      <c r="J124" s="3" t="n">
+        <v>688.3099999999999</v>
+      </c>
+      <c r="K124" s="3" t="n">
+        <v>911.15</v>
+      </c>
       <c r="L124" s="3" t="n">
         <v>954.65</v>
       </c>
-      <c r="M124" s="3" t="inlineStr"/>
+      <c r="M124" s="3" t="n">
+        <v>1658.1</v>
+      </c>
       <c r="N124" s="3" t="n">
         <v>301.49</v>
       </c>
@@ -7051,28 +8203,48 @@
         <v>693.05</v>
       </c>
       <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="inlineStr"/>
-      <c r="F125" s="3" t="inlineStr"/>
-      <c r="G125" s="3" t="inlineStr"/>
+      <c r="E125" s="3" t="n">
+        <v>538.17</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>113.68</v>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>1094.5</v>
+      </c>
       <c r="H125" s="3" t="n">
         <v>1232.4</v>
       </c>
       <c r="I125" s="3" t="inlineStr"/>
       <c r="J125" s="3" t="inlineStr"/>
-      <c r="K125" s="3" t="inlineStr"/>
-      <c r="L125" s="3" t="inlineStr"/>
+      <c r="K125" s="3" t="n">
+        <v>879.29</v>
+      </c>
+      <c r="L125" s="3" t="n">
+        <v>933.45</v>
+      </c>
       <c r="M125" s="3" t="n">
         <v>1650.6</v>
       </c>
       <c r="N125" s="3" t="inlineStr"/>
-      <c r="O125" s="3" t="inlineStr"/>
-      <c r="P125" s="3" t="inlineStr"/>
-      <c r="Q125" s="3" t="inlineStr"/>
+      <c r="O125" s="3" t="n">
+        <v>702.49</v>
+      </c>
+      <c r="P125" s="3" t="n">
+        <v>2050.8</v>
+      </c>
+      <c r="Q125" s="3" t="n">
+        <v>663.78</v>
+      </c>
       <c r="R125" s="3" t="n">
         <v>1827.2</v>
       </c>
-      <c r="S125" s="3" t="inlineStr"/>
-      <c r="T125" s="3" t="inlineStr"/>
+      <c r="S125" s="3" t="n">
+        <v>211.65</v>
+      </c>
+      <c r="T125" s="3" t="n">
+        <v>557</v>
+      </c>
       <c r="U125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
@@ -7105,7 +8277,9 @@
       <c r="K126" s="3" t="n">
         <v>889.53</v>
       </c>
-      <c r="L126" s="3" t="inlineStr"/>
+      <c r="L126" s="3" t="n">
+        <v>961.5700000000001</v>
+      </c>
       <c r="M126" s="3" t="inlineStr"/>
       <c r="N126" s="3" t="n">
         <v>303.59</v>
@@ -7116,9 +8290,13 @@
       <c r="P126" s="3" t="n">
         <v>2094.8</v>
       </c>
-      <c r="Q126" s="3" t="inlineStr"/>
+      <c r="Q126" s="3" t="n">
+        <v>683.92</v>
+      </c>
       <c r="R126" s="3" t="inlineStr"/>
-      <c r="S126" s="3" t="inlineStr"/>
+      <c r="S126" s="3" t="n">
+        <v>218.51</v>
+      </c>
       <c r="T126" s="3" t="n">
         <v>574.02</v>
       </c>
@@ -7152,7 +8330,9 @@
       <c r="O127" s="4" t="inlineStr"/>
       <c r="P127" s="4" t="inlineStr"/>
       <c r="Q127" s="4" t="inlineStr"/>
-      <c r="R127" s="4" t="inlineStr"/>
+      <c r="R127" s="4" t="n">
+        <v>1803.7</v>
+      </c>
       <c r="S127" s="4" t="inlineStr"/>
       <c r="T127" s="4" t="inlineStr"/>
       <c r="U127" s="4" t="inlineStr"/>
@@ -7292,9 +8472,7 @@
       <c r="D130" s="4" t="n">
         <v>364.95</v>
       </c>
-      <c r="E130" s="4" t="n">
-        <v>532.34</v>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
       <c r="F130" s="4" t="n">
         <v>111.84</v>
       </c>
@@ -7307,9 +8485,7 @@
       <c r="I130" s="4" t="n">
         <v>352.91</v>
       </c>
-      <c r="J130" s="4" t="n">
-        <v>666.08</v>
-      </c>
+      <c r="J130" s="4" t="inlineStr"/>
       <c r="K130" s="4" t="n">
         <v>875.34</v>
       </c>
@@ -7322,22 +8498,20 @@
       <c r="N130" s="4" t="n">
         <v>298.01</v>
       </c>
-      <c r="O130" s="4" t="n">
-        <v>701.17</v>
-      </c>
+      <c r="O130" s="4" t="inlineStr"/>
       <c r="P130" s="4" t="n">
         <v>2018.1</v>
       </c>
       <c r="Q130" s="4" t="n">
         <v>666.17</v>
       </c>
-      <c r="R130" s="4" t="inlineStr"/>
+      <c r="R130" s="4" t="n">
+        <v>1769.6</v>
+      </c>
       <c r="S130" s="4" t="n">
         <v>213.85</v>
       </c>
-      <c r="T130" s="4" t="n">
-        <v>554.45</v>
-      </c>
+      <c r="T130" s="4" t="inlineStr"/>
       <c r="U130" s="4" t="n">
         <v>3159.7</v>
       </c>
@@ -7474,30 +8648,54 @@
       <c r="A133" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="3" t="inlineStr"/>
+      <c r="B133" s="3" t="n">
+        <v>1076</v>
+      </c>
       <c r="C133" s="3" t="n">
         <v>687.1</v>
       </c>
-      <c r="D133" s="3" t="inlineStr"/>
-      <c r="E133" s="3" t="inlineStr"/>
-      <c r="F133" s="3" t="inlineStr"/>
-      <c r="G133" s="3" t="inlineStr"/>
+      <c r="D133" s="3" t="n">
+        <v>345.74</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>520.87</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>1052.1</v>
+      </c>
       <c r="H133" s="3" t="n">
         <v>1214</v>
       </c>
-      <c r="I133" s="3" t="inlineStr"/>
-      <c r="J133" s="3" t="inlineStr"/>
-      <c r="K133" s="3" t="inlineStr"/>
-      <c r="L133" s="3" t="inlineStr"/>
+      <c r="I133" s="3" t="n">
+        <v>336.09</v>
+      </c>
+      <c r="J133" s="3" t="n">
+        <v>638.75</v>
+      </c>
+      <c r="K133" s="3" t="n">
+        <v>837.17</v>
+      </c>
+      <c r="L133" s="3" t="n">
+        <v>895.5599999999999</v>
+      </c>
       <c r="M133" s="3" t="n">
         <v>1615.1</v>
       </c>
-      <c r="N133" s="3" t="inlineStr"/>
+      <c r="N133" s="3" t="n">
+        <v>285.12</v>
+      </c>
       <c r="O133" s="3" t="inlineStr"/>
       <c r="P133" s="3" t="inlineStr"/>
-      <c r="Q133" s="3" t="inlineStr"/>
+      <c r="Q133" s="3" t="n">
+        <v>637.85</v>
+      </c>
       <c r="R133" s="3" t="inlineStr"/>
-      <c r="S133" s="3" t="inlineStr"/>
+      <c r="S133" s="3" t="n">
+        <v>203.86</v>
+      </c>
       <c r="T133" s="3" t="inlineStr"/>
       <c r="U133" s="3" t="inlineStr"/>
     </row>
@@ -7508,7 +8706,9 @@
       <c r="B134" s="3" t="n">
         <v>1107.4</v>
       </c>
-      <c r="C134" s="3" t="inlineStr"/>
+      <c r="C134" s="3" t="n">
+        <v>692.3</v>
+      </c>
       <c r="D134" s="3" t="n">
         <v>355.52</v>
       </c>
@@ -7530,7 +8730,9 @@
       <c r="J134" s="3" t="n">
         <v>661.25</v>
       </c>
-      <c r="K134" s="3" t="inlineStr"/>
+      <c r="K134" s="3" t="n">
+        <v>873.73</v>
+      </c>
       <c r="L134" s="3" t="n">
         <v>915.03</v>
       </c>
@@ -7569,7 +8771,9 @@
       <c r="B135" s="3" t="n">
         <v>1089.4</v>
       </c>
-      <c r="C135" s="3" t="inlineStr"/>
+      <c r="C135" s="3" t="n">
+        <v>684.54</v>
+      </c>
       <c r="D135" s="3" t="n">
         <v>350.19</v>
       </c>
@@ -7582,7 +8786,9 @@
       <c r="G135" s="3" t="n">
         <v>1069.7</v>
       </c>
-      <c r="H135" s="3" t="inlineStr"/>
+      <c r="H135" s="3" t="n">
+        <v>1203.6</v>
+      </c>
       <c r="I135" s="3" t="n">
         <v>340.47</v>
       </c>
@@ -7595,7 +8801,9 @@
       <c r="L135" s="3" t="n">
         <v>922.37</v>
       </c>
-      <c r="M135" s="3" t="inlineStr"/>
+      <c r="M135" s="3" t="n">
+        <v>1604</v>
+      </c>
       <c r="N135" s="3" t="n">
         <v>293.73</v>
       </c>
@@ -7611,7 +8819,9 @@
       <c r="R135" s="3" t="n">
         <v>1779.7</v>
       </c>
-      <c r="S135" s="3" t="inlineStr"/>
+      <c r="S135" s="3" t="n">
+        <v>208.43</v>
+      </c>
       <c r="T135" s="3" t="n">
         <v>550.63</v>
       </c>
@@ -7644,7 +8854,9 @@
       <c r="H136" s="3" t="n">
         <v>1221.6</v>
       </c>
-      <c r="I136" s="3" t="inlineStr"/>
+      <c r="I136" s="3" t="n">
+        <v>345.63</v>
+      </c>
       <c r="J136" s="3" t="n">
         <v>660.72</v>
       </c>
@@ -7731,8 +8943,12 @@
       <c r="P137" s="4" t="n">
         <v>2090.4</v>
       </c>
-      <c r="Q137" s="4" t="inlineStr"/>
-      <c r="R137" s="4" t="inlineStr"/>
+      <c r="Q137" s="4" t="n">
+        <v>693.38</v>
+      </c>
+      <c r="R137" s="4" t="n">
+        <v>1742.7</v>
+      </c>
       <c r="S137" s="4" t="n">
         <v>220.81</v>
       </c>
@@ -7837,7 +9053,9 @@
       <c r="J139" s="4" t="n">
         <v>720.1799999999999</v>
       </c>
-      <c r="K139" s="4" t="inlineStr"/>
+      <c r="K139" s="4" t="n">
+        <v>945.72</v>
+      </c>
       <c r="L139" s="4" t="n">
         <v>970.0700000000001</v>
       </c>
@@ -7873,30 +9091,60 @@
       <c r="A140" s="4" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="inlineStr"/>
-      <c r="C140" s="4" t="inlineStr"/>
-      <c r="D140" s="4" t="inlineStr"/>
-      <c r="E140" s="4" t="inlineStr"/>
-      <c r="F140" s="4" t="inlineStr"/>
-      <c r="G140" s="4" t="inlineStr"/>
+      <c r="B140" s="4" t="n">
+        <v>1171.8</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>674.55</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>375.98</v>
+      </c>
+      <c r="E140" s="4" t="n">
+        <v>571.1799999999999</v>
+      </c>
+      <c r="F140" s="4" t="n">
+        <v>118.79</v>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>1139.2</v>
+      </c>
       <c r="H140" s="4" t="n">
         <v>1215.2</v>
       </c>
-      <c r="I140" s="4" t="inlineStr"/>
-      <c r="J140" s="4" t="inlineStr"/>
-      <c r="K140" s="4" t="inlineStr"/>
-      <c r="L140" s="4" t="inlineStr"/>
+      <c r="I140" s="4" t="n">
+        <v>361.72</v>
+      </c>
+      <c r="J140" s="4" t="n">
+        <v>704.0599999999999</v>
+      </c>
+      <c r="K140" s="4" t="n">
+        <v>923.9400000000001</v>
+      </c>
+      <c r="L140" s="4" t="n">
+        <v>953.64</v>
+      </c>
       <c r="M140" s="4" t="n">
         <v>1605.5</v>
       </c>
-      <c r="N140" s="4" t="inlineStr"/>
-      <c r="O140" s="4" t="inlineStr"/>
-      <c r="P140" s="4" t="inlineStr"/>
+      <c r="N140" s="4" t="n">
+        <v>303.65</v>
+      </c>
+      <c r="O140" s="4" t="n">
+        <v>729.2</v>
+      </c>
+      <c r="P140" s="4" t="n">
+        <v>2072.4</v>
+      </c>
       <c r="Q140" s="4" t="n">
         <v>695.5</v>
       </c>
-      <c r="R140" s="4" t="inlineStr"/>
-      <c r="S140" s="4" t="inlineStr"/>
+      <c r="R140" s="4" t="n">
+        <v>1773.8</v>
+      </c>
+      <c r="S140" s="4" t="n">
+        <v>220.27</v>
+      </c>
       <c r="T140" s="4" t="n">
         <v>579.63</v>
       </c>
@@ -7911,18 +9159,24 @@
       <c r="B141" s="4" t="n">
         <v>1198.7</v>
       </c>
-      <c r="C141" s="4" t="inlineStr"/>
+      <c r="C141" s="4" t="n">
+        <v>665.9</v>
+      </c>
       <c r="D141" s="4" t="n">
         <v>384.59</v>
       </c>
-      <c r="E141" s="4" t="inlineStr"/>
+      <c r="E141" s="4" t="n">
+        <v>584.85</v>
+      </c>
       <c r="F141" s="4" t="n">
         <v>120.81</v>
       </c>
       <c r="G141" s="4" t="n">
         <v>1163.9</v>
       </c>
-      <c r="H141" s="4" t="inlineStr"/>
+      <c r="H141" s="4" t="n">
+        <v>1199.6</v>
+      </c>
       <c r="I141" s="4" t="n">
         <v>370.33</v>
       </c>
@@ -7932,19 +9186,31 @@
       <c r="K141" s="4" t="n">
         <v>936.05</v>
       </c>
-      <c r="L141" s="4" t="inlineStr"/>
+      <c r="L141" s="4" t="n">
+        <v>979.9</v>
+      </c>
       <c r="M141" s="4" t="inlineStr"/>
-      <c r="N141" s="4" t="inlineStr"/>
-      <c r="O141" s="4" t="inlineStr"/>
+      <c r="N141" s="4" t="n">
+        <v>312.14</v>
+      </c>
+      <c r="O141" s="4" t="n">
+        <v>748.17</v>
+      </c>
       <c r="P141" s="4" t="n">
         <v>2117.1</v>
       </c>
-      <c r="Q141" s="4" t="inlineStr"/>
+      <c r="Q141" s="4" t="n">
+        <v>716.85</v>
+      </c>
       <c r="R141" s="4" t="n">
         <v>1772.5</v>
       </c>
-      <c r="S141" s="4" t="inlineStr"/>
-      <c r="T141" s="4" t="inlineStr"/>
+      <c r="S141" s="4" t="n">
+        <v>226.96</v>
+      </c>
+      <c r="T141" s="4" t="n">
+        <v>599.23</v>
+      </c>
       <c r="U141" s="4" t="inlineStr"/>
     </row>
     <row r="142">
@@ -7954,16 +9220,22 @@
       <c r="B142" s="3" t="n">
         <v>1177.4</v>
       </c>
-      <c r="C142" s="3" t="inlineStr"/>
+      <c r="C142" s="3" t="n">
+        <v>652.9</v>
+      </c>
       <c r="D142" s="3" t="n">
         <v>378.06</v>
       </c>
-      <c r="E142" s="3" t="inlineStr"/>
+      <c r="E142" s="3" t="n">
+        <v>561.61</v>
+      </c>
       <c r="F142" s="3" t="inlineStr"/>
       <c r="G142" s="3" t="n">
         <v>1146.5</v>
       </c>
-      <c r="H142" s="3" t="inlineStr"/>
+      <c r="H142" s="3" t="n">
+        <v>1172.8</v>
+      </c>
       <c r="I142" s="3" t="n">
         <v>364.93</v>
       </c>
@@ -7974,7 +9246,9 @@
       <c r="L142" s="3" t="n">
         <v>974.9299999999999</v>
       </c>
-      <c r="M142" s="3" t="inlineStr"/>
+      <c r="M142" s="3" t="n">
+        <v>1567.2</v>
+      </c>
       <c r="N142" s="3" t="n">
         <v>310.4</v>
       </c>
@@ -8137,7 +9411,9 @@
       <c r="B145" s="3" t="n">
         <v>1181</v>
       </c>
-      <c r="C145" s="3" t="inlineStr"/>
+      <c r="C145" s="3" t="n">
+        <v>660.84</v>
+      </c>
       <c r="D145" s="3" t="n">
         <v>379.28</v>
       </c>
@@ -8177,7 +9453,9 @@
       <c r="P145" s="3" t="n">
         <v>2085.4</v>
       </c>
-      <c r="Q145" s="3" t="inlineStr"/>
+      <c r="Q145" s="3" t="n">
+        <v>699.89</v>
+      </c>
       <c r="R145" s="3" t="n">
         <v>1728.4</v>
       </c>
@@ -8209,14 +9487,24 @@
       <c r="I146" s="3" t="inlineStr"/>
       <c r="J146" s="3" t="inlineStr"/>
       <c r="K146" s="3" t="inlineStr"/>
-      <c r="L146" s="3" t="inlineStr"/>
-      <c r="M146" s="3" t="inlineStr"/>
-      <c r="N146" s="3" t="inlineStr"/>
+      <c r="L146" s="3" t="n">
+        <v>1001.4</v>
+      </c>
+      <c r="M146" s="3" t="n">
+        <v>1584.1</v>
+      </c>
+      <c r="N146" s="3" t="n">
+        <v>318.86</v>
+      </c>
       <c r="O146" s="3" t="inlineStr"/>
       <c r="P146" s="3" t="inlineStr"/>
       <c r="Q146" s="3" t="inlineStr"/>
-      <c r="R146" s="3" t="inlineStr"/>
-      <c r="S146" s="3" t="inlineStr"/>
+      <c r="R146" s="3" t="n">
+        <v>1744.4</v>
+      </c>
+      <c r="S146" s="3" t="n">
+        <v>229.03</v>
+      </c>
       <c r="T146" s="3" t="inlineStr"/>
       <c r="U146" s="3" t="inlineStr"/>
     </row>
@@ -8337,7 +9625,9 @@
       <c r="Q148" s="4" t="n">
         <v>687.4299999999999</v>
       </c>
-      <c r="R148" s="4" t="inlineStr"/>
+      <c r="R148" s="4" t="n">
+        <v>1771.7</v>
+      </c>
       <c r="S148" s="4" t="n">
         <v>217.02</v>
       </c>
@@ -8423,22 +9713,34 @@
       <c r="E150" s="4" t="inlineStr"/>
       <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="inlineStr"/>
-      <c r="H150" s="4" t="inlineStr"/>
+      <c r="H150" s="4" t="n">
+        <v>1133.4</v>
+      </c>
       <c r="I150" s="4" t="inlineStr"/>
       <c r="J150" s="4" t="inlineStr"/>
       <c r="K150" s="4" t="inlineStr"/>
-      <c r="L150" s="4" t="inlineStr"/>
-      <c r="M150" s="4" t="inlineStr"/>
-      <c r="N150" s="4" t="inlineStr"/>
+      <c r="L150" s="4" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="M150" s="4" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N150" s="4" t="n">
+        <v>309.66</v>
+      </c>
       <c r="O150" s="4" t="inlineStr"/>
       <c r="P150" s="4" t="inlineStr"/>
       <c r="Q150" s="4" t="inlineStr"/>
       <c r="R150" s="4" t="n">
         <v>1730.6</v>
       </c>
-      <c r="S150" s="4" t="inlineStr"/>
+      <c r="S150" s="4" t="n">
+        <v>225.58</v>
+      </c>
       <c r="T150" s="4" t="inlineStr"/>
-      <c r="U150" s="4" t="inlineStr"/>
+      <c r="U150" s="4" t="n">
+        <v>3327.3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="n">
@@ -8492,14 +9794,18 @@
       <c r="Q151" s="4" t="n">
         <v>694.5599999999999</v>
       </c>
-      <c r="R151" s="4" t="inlineStr"/>
+      <c r="R151" s="4" t="n">
+        <v>1726.7</v>
+      </c>
       <c r="S151" s="4" t="n">
         <v>220.82</v>
       </c>
       <c r="T151" s="4" t="n">
         <v>576.17</v>
       </c>
-      <c r="U151" s="4" t="inlineStr"/>
+      <c r="U151" s="4" t="n">
+        <v>3251.7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
@@ -8511,8 +9817,12 @@
       <c r="C152" s="3" t="n">
         <v>678.91</v>
       </c>
-      <c r="D152" s="3" t="inlineStr"/>
-      <c r="E152" s="3" t="inlineStr"/>
+      <c r="D152" s="3" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>523.48</v>
+      </c>
       <c r="F152" s="3" t="n">
         <v>106.95</v>
       </c>
@@ -8522,8 +9832,12 @@
       <c r="H152" s="3" t="n">
         <v>1148.4</v>
       </c>
-      <c r="I152" s="3" t="inlineStr"/>
-      <c r="J152" s="3" t="inlineStr"/>
+      <c r="I152" s="3" t="n">
+        <v>336.74</v>
+      </c>
+      <c r="J152" s="3" t="n">
+        <v>627.51</v>
+      </c>
       <c r="K152" s="3" t="n">
         <v>789.16</v>
       </c>
@@ -8533,7 +9847,9 @@
       <c r="M152" s="3" t="n">
         <v>1532.3</v>
       </c>
-      <c r="N152" s="3" t="inlineStr"/>
+      <c r="N152" s="3" t="n">
+        <v>299.92</v>
+      </c>
       <c r="O152" s="3" t="n">
         <v>677.27</v>
       </c>
@@ -8546,7 +9862,9 @@
       <c r="R152" s="3" t="n">
         <v>1815.4</v>
       </c>
-      <c r="S152" s="3" t="inlineStr"/>
+      <c r="S152" s="3" t="n">
+        <v>223.02</v>
+      </c>
       <c r="T152" s="3" t="n">
         <v>589.65</v>
       </c>
@@ -8570,7 +9888,9 @@
       <c r="E153" s="3" t="n">
         <v>526.1</v>
       </c>
-      <c r="F153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="n">
+        <v>106.85</v>
+      </c>
       <c r="G153" s="3" t="n">
         <v>1055.1</v>
       </c>
@@ -8581,11 +9901,15 @@
       <c r="J153" s="3" t="n">
         <v>629.64</v>
       </c>
-      <c r="K153" s="3" t="inlineStr"/>
+      <c r="K153" s="3" t="n">
+        <v>786.9299999999999</v>
+      </c>
       <c r="L153" s="3" t="n">
         <v>948.66</v>
       </c>
-      <c r="M153" s="3" t="inlineStr"/>
+      <c r="M153" s="3" t="n">
+        <v>1527</v>
+      </c>
       <c r="N153" s="3" t="n">
         <v>302.19</v>
       </c>
@@ -8598,7 +9922,9 @@
       <c r="Q153" s="3" t="n">
         <v>707.66</v>
       </c>
-      <c r="R153" s="3" t="inlineStr"/>
+      <c r="R153" s="3" t="n">
+        <v>1812.4</v>
+      </c>
       <c r="S153" s="3" t="n">
         <v>225.37</v>
       </c>
@@ -8616,7 +9942,9 @@
       <c r="B154" s="3" t="n">
         <v>1076</v>
       </c>
-      <c r="C154" s="3" t="inlineStr"/>
+      <c r="C154" s="3" t="n">
+        <v>679.87</v>
+      </c>
       <c r="D154" s="3" t="n">
         <v>344.16</v>
       </c>
@@ -8741,32 +10069,66 @@
       <c r="A156" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="inlineStr"/>
+      <c r="B156" s="3" t="n">
+        <v>1084</v>
+      </c>
       <c r="C156" s="3" t="n">
         <v>675.3200000000001</v>
       </c>
-      <c r="D156" s="3" t="inlineStr"/>
-      <c r="E156" s="3" t="inlineStr"/>
-      <c r="F156" s="3" t="inlineStr"/>
-      <c r="G156" s="3" t="inlineStr"/>
+      <c r="D156" s="3" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>548.99</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>109.35</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>1070.5</v>
+      </c>
       <c r="H156" s="3" t="n">
         <v>1148.4</v>
       </c>
-      <c r="I156" s="3" t="inlineStr"/>
-      <c r="J156" s="3" t="inlineStr"/>
-      <c r="K156" s="3" t="inlineStr"/>
-      <c r="L156" s="3" t="inlineStr"/>
+      <c r="I156" s="3" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="J156" s="3" t="n">
+        <v>649.8200000000001</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>803.61</v>
+      </c>
+      <c r="L156" s="3" t="n">
+        <v>969.9299999999999</v>
+      </c>
       <c r="M156" s="3" t="n">
         <v>1537.9</v>
       </c>
-      <c r="N156" s="3" t="inlineStr"/>
-      <c r="O156" s="3" t="inlineStr"/>
-      <c r="P156" s="3" t="inlineStr"/>
-      <c r="Q156" s="3" t="inlineStr"/>
-      <c r="R156" s="3" t="inlineStr"/>
-      <c r="S156" s="3" t="inlineStr"/>
-      <c r="T156" s="3" t="inlineStr"/>
-      <c r="U156" s="3" t="inlineStr"/>
+      <c r="N156" s="3" t="n">
+        <v>309.08</v>
+      </c>
+      <c r="O156" s="3" t="n">
+        <v>698.51</v>
+      </c>
+      <c r="P156" s="3" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Q156" s="3" t="n">
+        <v>727.92</v>
+      </c>
+      <c r="R156" s="3" t="n">
+        <v>1839.1</v>
+      </c>
+      <c r="S156" s="3" t="n">
+        <v>231.67</v>
+      </c>
+      <c r="T156" s="3" t="n">
+        <v>614.62</v>
+      </c>
+      <c r="U156" s="3" t="n">
+        <v>3558.6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="n">
@@ -8846,7 +10208,9 @@
       <c r="D158" s="4" t="n">
         <v>331.01</v>
       </c>
-      <c r="E158" s="4" t="inlineStr"/>
+      <c r="E158" s="4" t="n">
+        <v>504.37</v>
+      </c>
       <c r="F158" s="4" t="n">
         <v>104.2</v>
       </c>
@@ -8856,7 +10220,9 @@
       <c r="H158" s="4" t="n">
         <v>1165.6</v>
       </c>
-      <c r="I158" s="4" t="inlineStr"/>
+      <c r="I158" s="4" t="n">
+        <v>325.4</v>
+      </c>
       <c r="J158" s="4" t="n">
         <v>604.63</v>
       </c>
@@ -8872,7 +10238,9 @@
       <c r="N158" s="4" t="n">
         <v>288.16</v>
       </c>
-      <c r="O158" s="4" t="inlineStr"/>
+      <c r="O158" s="4" t="n">
+        <v>649.28</v>
+      </c>
       <c r="P158" s="4" t="n">
         <v>1866.5</v>
       </c>
@@ -8988,7 +10356,9 @@
       <c r="L160" s="4" t="n">
         <v>910</v>
       </c>
-      <c r="M160" s="4" t="inlineStr"/>
+      <c r="M160" s="4" t="n">
+        <v>1547.4</v>
+      </c>
       <c r="N160" s="4" t="n">
         <v>290.22</v>
       </c>
@@ -9022,28 +10392,50 @@
       <c r="C161" s="4" t="n">
         <v>686.5599999999999</v>
       </c>
-      <c r="D161" s="4" t="inlineStr"/>
+      <c r="D161" s="4" t="n">
+        <v>335.33</v>
+      </c>
       <c r="E161" s="4" t="inlineStr"/>
-      <c r="F161" s="4" t="inlineStr"/>
+      <c r="F161" s="4" t="n">
+        <v>105.57</v>
+      </c>
       <c r="G161" s="4" t="inlineStr"/>
       <c r="H161" s="4" t="n">
         <v>1166.9</v>
       </c>
-      <c r="I161" s="4" t="inlineStr"/>
-      <c r="J161" s="4" t="inlineStr"/>
+      <c r="I161" s="4" t="n">
+        <v>329.65</v>
+      </c>
+      <c r="J161" s="4" t="n">
+        <v>613.2</v>
+      </c>
       <c r="K161" s="4" t="inlineStr"/>
       <c r="L161" s="4" t="inlineStr"/>
       <c r="M161" s="4" t="n">
         <v>1552.2</v>
       </c>
       <c r="N161" s="4" t="inlineStr"/>
-      <c r="O161" s="4" t="inlineStr"/>
-      <c r="P161" s="4" t="inlineStr"/>
-      <c r="Q161" s="4" t="inlineStr"/>
-      <c r="R161" s="4" t="inlineStr"/>
-      <c r="S161" s="4" t="inlineStr"/>
-      <c r="T161" s="4" t="inlineStr"/>
-      <c r="U161" s="4" t="inlineStr"/>
+      <c r="O161" s="4" t="n">
+        <v>658.59</v>
+      </c>
+      <c r="P161" s="4" t="n">
+        <v>1892.8</v>
+      </c>
+      <c r="Q161" s="4" t="n">
+        <v>679.21</v>
+      </c>
+      <c r="R161" s="4" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="S161" s="4" t="n">
+        <v>214.24</v>
+      </c>
+      <c r="T161" s="4" t="n">
+        <v>567.17</v>
+      </c>
+      <c r="U161" s="4" t="n">
+        <v>3316.9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
@@ -9052,22 +10444,30 @@
       <c r="B162" s="3" t="n">
         <v>952.77</v>
       </c>
-      <c r="C162" s="3" t="inlineStr"/>
+      <c r="C162" s="3" t="n">
+        <v>650.4</v>
+      </c>
       <c r="D162" s="3" t="n">
         <v>305.13</v>
       </c>
       <c r="E162" s="3" t="n">
         <v>454.96</v>
       </c>
-      <c r="F162" s="3" t="inlineStr"/>
+      <c r="F162" s="3" t="n">
+        <v>89.745</v>
+      </c>
       <c r="G162" s="3" t="n">
         <v>943.75</v>
       </c>
-      <c r="H162" s="3" t="inlineStr"/>
+      <c r="H162" s="3" t="n">
+        <v>1076.9</v>
+      </c>
       <c r="I162" s="3" t="n">
         <v>302.78</v>
       </c>
-      <c r="J162" s="3" t="inlineStr"/>
+      <c r="J162" s="3" t="n">
+        <v>539.55</v>
+      </c>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="n">
         <v>868.01</v>
@@ -9125,14 +10525,18 @@
       <c r="H163" s="3" t="n">
         <v>1087.3</v>
       </c>
-      <c r="I163" s="3" t="inlineStr"/>
+      <c r="I163" s="3" t="n">
+        <v>300.72</v>
+      </c>
       <c r="J163" s="3" t="n">
         <v>540.4400000000001</v>
       </c>
       <c r="K163" s="3" t="n">
         <v>658.45</v>
       </c>
-      <c r="L163" s="3" t="inlineStr"/>
+      <c r="L163" s="3" t="n">
+        <v>862.01</v>
+      </c>
       <c r="M163" s="3" t="n">
         <v>1447.4</v>
       </c>
@@ -9142,16 +10546,24 @@
       <c r="O163" s="3" t="n">
         <v>587.92</v>
       </c>
-      <c r="P163" s="3" t="inlineStr"/>
+      <c r="P163" s="3" t="n">
+        <v>1658.5</v>
+      </c>
       <c r="Q163" s="3" t="n">
         <v>659.01</v>
       </c>
-      <c r="R163" s="3" t="inlineStr"/>
-      <c r="S163" s="3" t="inlineStr"/>
+      <c r="R163" s="3" t="n">
+        <v>1764.4</v>
+      </c>
+      <c r="S163" s="3" t="n">
+        <v>208.03</v>
+      </c>
       <c r="T163" s="3" t="n">
         <v>537.6</v>
       </c>
-      <c r="U163" s="3" t="inlineStr"/>
+      <c r="U163" s="3" t="n">
+        <v>3123.4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
@@ -9160,7 +10572,9 @@
       <c r="B164" s="3" t="n">
         <v>950.78</v>
       </c>
-      <c r="C164" s="3" t="inlineStr"/>
+      <c r="C164" s="3" t="n">
+        <v>654.71</v>
+      </c>
       <c r="D164" s="3" t="n">
         <v>304.68</v>
       </c>
@@ -9173,7 +10587,9 @@
       <c r="G164" s="3" t="n">
         <v>943.89</v>
       </c>
-      <c r="H164" s="3" t="inlineStr"/>
+      <c r="H164" s="3" t="n">
+        <v>1090.9</v>
+      </c>
       <c r="I164" s="3" t="n">
         <v>301.09</v>
       </c>
@@ -9186,7 +10602,9 @@
       <c r="L164" s="3" t="n">
         <v>863.5700000000001</v>
       </c>
-      <c r="M164" s="3" t="inlineStr"/>
+      <c r="M164" s="3" t="n">
+        <v>1455.7</v>
+      </c>
       <c r="N164" s="3" t="n">
         <v>275.24</v>
       </c>
@@ -9204,7 +10622,9 @@
         <v>208.31</v>
       </c>
       <c r="T164" s="3" t="inlineStr"/>
-      <c r="U164" s="3" t="inlineStr"/>
+      <c r="U164" s="3" t="n">
+        <v>3082.7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
@@ -9280,25 +10700,47 @@
         <v>651.29</v>
       </c>
       <c r="D166" s="3" t="inlineStr"/>
-      <c r="E166" s="3" t="inlineStr"/>
-      <c r="F166" s="3" t="inlineStr"/>
+      <c r="E166" s="3" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>91.383</v>
+      </c>
       <c r="G166" s="3" t="inlineStr"/>
       <c r="H166" s="3" t="n">
         <v>1079.7</v>
       </c>
-      <c r="I166" s="3" t="inlineStr"/>
-      <c r="J166" s="3" t="inlineStr"/>
-      <c r="K166" s="3" t="inlineStr"/>
-      <c r="L166" s="3" t="inlineStr"/>
-      <c r="M166" s="3" t="inlineStr"/>
+      <c r="I166" s="3" t="n">
+        <v>305.15</v>
+      </c>
+      <c r="J166" s="3" t="n">
+        <v>547.24</v>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>667.11</v>
+      </c>
+      <c r="L166" s="3" t="n">
+        <v>875.39</v>
+      </c>
+      <c r="M166" s="3" t="n">
+        <v>1437.3</v>
+      </c>
       <c r="N166" s="3" t="inlineStr"/>
-      <c r="O166" s="3" t="inlineStr"/>
-      <c r="P166" s="3" t="inlineStr"/>
-      <c r="Q166" s="3" t="inlineStr"/>
+      <c r="O166" s="3" t="n">
+        <v>595.45</v>
+      </c>
+      <c r="P166" s="3" t="n">
+        <v>1680.9</v>
+      </c>
+      <c r="Q166" s="3" t="n">
+        <v>665.01</v>
+      </c>
       <c r="R166" s="3" t="n">
         <v>1741.7</v>
       </c>
-      <c r="S166" s="3" t="inlineStr"/>
+      <c r="S166" s="3" t="n">
+        <v>210.98</v>
+      </c>
       <c r="T166" s="3" t="inlineStr"/>
       <c r="U166" s="3" t="n">
         <v>3119.5</v>
@@ -9318,11 +10760,15 @@
       <c r="E167" s="4" t="n">
         <v>542.27</v>
       </c>
-      <c r="F167" s="4" t="inlineStr"/>
+      <c r="F167" s="4" t="n">
+        <v>115.17</v>
+      </c>
       <c r="G167" s="4" t="n">
         <v>1067.7</v>
       </c>
-      <c r="H167" s="4" t="inlineStr"/>
+      <c r="H167" s="4" t="n">
+        <v>1224.6</v>
+      </c>
       <c r="I167" s="4" t="n">
         <v>340.69</v>
       </c>
@@ -9348,12 +10794,18 @@
       <c r="Q167" s="4" t="n">
         <v>662.6</v>
       </c>
-      <c r="R167" s="4" t="inlineStr"/>
+      <c r="R167" s="4" t="n">
+        <v>1866.2</v>
+      </c>
       <c r="S167" s="4" t="n">
         <v>209.71</v>
       </c>
-      <c r="T167" s="4" t="inlineStr"/>
-      <c r="U167" s="4" t="inlineStr"/>
+      <c r="T167" s="4" t="n">
+        <v>559.42</v>
+      </c>
+      <c r="U167" s="4" t="n">
+        <v>3277.4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="n">
@@ -9424,15 +10876,21 @@
       <c r="A169" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="inlineStr"/>
+      <c r="B169" s="4" t="n">
+        <v>1078.9</v>
+      </c>
       <c r="C169" s="4" t="n">
         <v>713.28</v>
       </c>
-      <c r="D169" s="4" t="inlineStr"/>
+      <c r="D169" s="4" t="n">
+        <v>345.59</v>
+      </c>
       <c r="E169" s="4" t="n">
         <v>539.14</v>
       </c>
-      <c r="F169" s="4" t="inlineStr"/>
+      <c r="F169" s="4" t="n">
+        <v>113.57</v>
+      </c>
       <c r="G169" s="4" t="inlineStr"/>
       <c r="H169" s="4" t="n">
         <v>1227.6</v>
@@ -9440,8 +10898,12 @@
       <c r="I169" s="4" t="n">
         <v>339.48</v>
       </c>
-      <c r="J169" s="4" t="inlineStr"/>
-      <c r="K169" s="4" t="inlineStr"/>
+      <c r="J169" s="4" t="n">
+        <v>646.3099999999999</v>
+      </c>
+      <c r="K169" s="4" t="n">
+        <v>842.83</v>
+      </c>
       <c r="L169" s="4" t="n">
         <v>917.41</v>
       </c>
@@ -9460,7 +10922,9 @@
       <c r="Q169" s="4" t="n">
         <v>664.77</v>
       </c>
-      <c r="R169" s="4" t="inlineStr"/>
+      <c r="R169" s="4" t="n">
+        <v>1879.9</v>
+      </c>
       <c r="S169" s="4" t="n">
         <v>209.72</v>
       </c>
@@ -9493,7 +10957,9 @@
       <c r="G170" s="4" t="n">
         <v>1066.6</v>
       </c>
-      <c r="H170" s="4" t="inlineStr"/>
+      <c r="H170" s="4" t="n">
+        <v>1231</v>
+      </c>
       <c r="I170" s="4" t="n">
         <v>340.46</v>
       </c>
@@ -9538,7 +11004,9 @@
       <c r="A171" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="inlineStr"/>
+      <c r="B171" s="4" t="n">
+        <v>1094.4</v>
+      </c>
       <c r="C171" s="4" t="n">
         <v>711.51</v>
       </c>
@@ -9551,9 +11019,13 @@
       <c r="H171" s="4" t="n">
         <v>1226.7</v>
       </c>
-      <c r="I171" s="4" t="inlineStr"/>
+      <c r="I171" s="4" t="n">
+        <v>342.02</v>
+      </c>
       <c r="J171" s="4" t="inlineStr"/>
-      <c r="K171" s="4" t="inlineStr"/>
+      <c r="K171" s="4" t="n">
+        <v>858.38</v>
+      </c>
       <c r="L171" s="4" t="inlineStr"/>
       <c r="M171" s="4" t="n">
         <v>1627.7</v>
@@ -9561,13 +11033,21 @@
       <c r="N171" s="4" t="inlineStr"/>
       <c r="O171" s="4" t="inlineStr"/>
       <c r="P171" s="4" t="inlineStr"/>
-      <c r="Q171" s="4" t="inlineStr"/>
+      <c r="Q171" s="4" t="n">
+        <v>677.47</v>
+      </c>
       <c r="R171" s="4" t="n">
         <v>1874.3</v>
       </c>
-      <c r="S171" s="4" t="inlineStr"/>
-      <c r="T171" s="4" t="inlineStr"/>
-      <c r="U171" s="4" t="inlineStr"/>
+      <c r="S171" s="4" t="n">
+        <v>214.23</v>
+      </c>
+      <c r="T171" s="4" t="n">
+        <v>573.14</v>
+      </c>
+      <c r="U171" s="4" t="n">
+        <v>3363.3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
@@ -9579,7 +11059,9 @@
       <c r="C172" s="3" t="n">
         <v>670.66</v>
       </c>
-      <c r="D172" s="3" t="inlineStr"/>
+      <c r="D172" s="3" t="n">
+        <v>311.39</v>
+      </c>
       <c r="E172" s="3" t="n">
         <v>469.46</v>
       </c>
@@ -9685,7 +11167,9 @@
       <c r="R173" s="3" t="n">
         <v>1777.6</v>
       </c>
-      <c r="S173" s="3" t="inlineStr"/>
+      <c r="S173" s="3" t="n">
+        <v>208.67</v>
+      </c>
       <c r="T173" s="3" t="n">
         <v>538.27</v>
       </c>
@@ -9827,26 +11311,56 @@
       <c r="A176" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="3" t="inlineStr"/>
+      <c r="B176" s="3" t="n">
+        <v>988.39</v>
+      </c>
       <c r="C176" s="3" t="inlineStr"/>
-      <c r="D176" s="3" t="inlineStr"/>
+      <c r="D176" s="3" t="n">
+        <v>316.8</v>
+      </c>
       <c r="E176" s="3" t="inlineStr"/>
-      <c r="F176" s="3" t="inlineStr"/>
+      <c r="F176" s="3" t="n">
+        <v>96.349</v>
+      </c>
       <c r="G176" s="3" t="inlineStr"/>
-      <c r="H176" s="3" t="inlineStr"/>
-      <c r="I176" s="3" t="inlineStr"/>
+      <c r="H176" s="3" t="n">
+        <v>1125.2</v>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>313.57</v>
+      </c>
       <c r="J176" s="3" t="inlineStr"/>
       <c r="K176" s="3" t="inlineStr"/>
-      <c r="L176" s="3" t="inlineStr"/>
-      <c r="M176" s="3" t="inlineStr"/>
-      <c r="N176" s="3" t="inlineStr"/>
-      <c r="O176" s="3" t="inlineStr"/>
-      <c r="P176" s="3" t="inlineStr"/>
-      <c r="Q176" s="3" t="inlineStr"/>
-      <c r="R176" s="3" t="inlineStr"/>
-      <c r="S176" s="3" t="inlineStr"/>
-      <c r="T176" s="3" t="inlineStr"/>
-      <c r="U176" s="3" t="inlineStr"/>
+      <c r="L176" s="3" t="n">
+        <v>882.84</v>
+      </c>
+      <c r="M176" s="3" t="n">
+        <v>1501.9</v>
+      </c>
+      <c r="N176" s="3" t="n">
+        <v>281.83</v>
+      </c>
+      <c r="O176" s="3" t="n">
+        <v>616.4</v>
+      </c>
+      <c r="P176" s="3" t="n">
+        <v>1758.5</v>
+      </c>
+      <c r="Q176" s="3" t="n">
+        <v>661.3200000000001</v>
+      </c>
+      <c r="R176" s="3" t="n">
+        <v>1791.4</v>
+      </c>
+      <c r="S176" s="3" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="T176" s="3" t="n">
+        <v>545.11</v>
+      </c>
+      <c r="U176" s="3" t="n">
+        <v>3165.5</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="n">
@@ -9897,13 +11411,21 @@
       <c r="P177" s="4" t="n">
         <v>1634.3</v>
       </c>
-      <c r="Q177" s="4" t="inlineStr"/>
+      <c r="Q177" s="4" t="n">
+        <v>672.1900000000001</v>
+      </c>
       <c r="R177" s="4" t="n">
         <v>1707.6</v>
       </c>
-      <c r="S177" s="4" t="inlineStr"/>
-      <c r="T177" s="4" t="inlineStr"/>
-      <c r="U177" s="4" t="inlineStr"/>
+      <c r="S177" s="4" t="n">
+        <v>214.95</v>
+      </c>
+      <c r="T177" s="4" t="n">
+        <v>543.01</v>
+      </c>
+      <c r="U177" s="4" t="n">
+        <v>3100.1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="n">
@@ -9942,18 +11464,24 @@
       <c r="L178" s="4" t="n">
         <v>869.61</v>
       </c>
-      <c r="M178" s="4" t="inlineStr"/>
+      <c r="M178" s="4" t="n">
+        <v>1389.5</v>
+      </c>
       <c r="N178" s="4" t="n">
         <v>277.7</v>
       </c>
       <c r="O178" s="4" t="n">
         <v>584.26</v>
       </c>
-      <c r="P178" s="4" t="inlineStr"/>
+      <c r="P178" s="4" t="n">
+        <v>1619.5</v>
+      </c>
       <c r="Q178" s="4" t="n">
         <v>676.8099999999999</v>
       </c>
-      <c r="R178" s="4" t="inlineStr"/>
+      <c r="R178" s="4" t="n">
+        <v>1705.8</v>
+      </c>
       <c r="S178" s="4" t="n">
         <v>215.71</v>
       </c>
@@ -10098,26 +11626,66 @@
       <c r="A181" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="4" t="inlineStr"/>
-      <c r="C181" s="4" t="inlineStr"/>
-      <c r="D181" s="4" t="inlineStr"/>
-      <c r="E181" s="4" t="inlineStr"/>
-      <c r="F181" s="4" t="inlineStr"/>
-      <c r="G181" s="4" t="inlineStr"/>
-      <c r="H181" s="4" t="inlineStr"/>
-      <c r="I181" s="4" t="inlineStr"/>
-      <c r="J181" s="4" t="inlineStr"/>
-      <c r="K181" s="4" t="inlineStr"/>
-      <c r="L181" s="4" t="inlineStr"/>
-      <c r="M181" s="4" t="inlineStr"/>
-      <c r="N181" s="4" t="inlineStr"/>
-      <c r="O181" s="4" t="inlineStr"/>
-      <c r="P181" s="4" t="inlineStr"/>
-      <c r="Q181" s="4" t="inlineStr"/>
-      <c r="R181" s="4" t="inlineStr"/>
-      <c r="S181" s="4" t="inlineStr"/>
-      <c r="T181" s="4" t="inlineStr"/>
-      <c r="U181" s="4" t="inlineStr"/>
+      <c r="B181" s="4" t="n">
+        <v>960.54</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>641.61</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>307.92</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>89.294</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>952.47</v>
+      </c>
+      <c r="H181" s="4" t="n">
+        <v>1051.9</v>
+      </c>
+      <c r="I181" s="4" t="n">
+        <v>305.63</v>
+      </c>
+      <c r="J181" s="4" t="n">
+        <v>544.4400000000001</v>
+      </c>
+      <c r="K181" s="4" t="n">
+        <v>645.86</v>
+      </c>
+      <c r="L181" s="4" t="n">
+        <v>882.4</v>
+      </c>
+      <c r="M181" s="4" t="n">
+        <v>1407.1</v>
+      </c>
+      <c r="N181" s="4" t="n">
+        <v>281.78</v>
+      </c>
+      <c r="O181" s="4" t="n">
+        <v>595.11</v>
+      </c>
+      <c r="P181" s="4" t="n">
+        <v>1658.3</v>
+      </c>
+      <c r="Q181" s="4" t="n">
+        <v>683.8099999999999</v>
+      </c>
+      <c r="R181" s="4" t="n">
+        <v>1724.9</v>
+      </c>
+      <c r="S181" s="4" t="n">
+        <v>217.77</v>
+      </c>
+      <c r="T181" s="4" t="n">
+        <v>553.8099999999999</v>
+      </c>
+      <c r="U181" s="4" t="n">
+        <v>3178.8</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
@@ -10133,7 +11701,9 @@
       <c r="E182" s="3" t="n">
         <v>474.85</v>
       </c>
-      <c r="F182" s="3" t="inlineStr"/>
+      <c r="F182" s="3" t="n">
+        <v>95.78400000000001</v>
+      </c>
       <c r="G182" s="3" t="n">
         <v>978.0599999999999</v>
       </c>
@@ -10144,11 +11714,15 @@
       <c r="J182" s="3" t="n">
         <v>571.39</v>
       </c>
-      <c r="K182" s="3" t="inlineStr"/>
+      <c r="K182" s="3" t="n">
+        <v>711.12</v>
+      </c>
       <c r="L182" s="3" t="n">
         <v>875.67</v>
       </c>
-      <c r="M182" s="3" t="inlineStr"/>
+      <c r="M182" s="3" t="n">
+        <v>1503.7</v>
+      </c>
       <c r="N182" s="3" t="n">
         <v>279.52</v>
       </c>
@@ -10161,7 +11735,9 @@
       <c r="Q182" s="3" t="n">
         <v>657.9299999999999</v>
       </c>
-      <c r="R182" s="3" t="inlineStr"/>
+      <c r="R182" s="3" t="n">
+        <v>1787.6</v>
+      </c>
       <c r="S182" s="3" t="n">
         <v>209.38</v>
       </c>
@@ -10182,7 +11758,9 @@
       <c r="C183" s="3" t="n">
         <v>666.05</v>
       </c>
-      <c r="D183" s="3" t="inlineStr"/>
+      <c r="D183" s="3" t="n">
+        <v>316.64</v>
+      </c>
       <c r="E183" s="3" t="n">
         <v>475.8</v>
       </c>
@@ -10195,7 +11773,9 @@
       <c r="H183" s="3" t="n">
         <v>1131.8</v>
       </c>
-      <c r="I183" s="3" t="inlineStr"/>
+      <c r="I183" s="3" t="n">
+        <v>312.31</v>
+      </c>
       <c r="J183" s="3" t="n">
         <v>572.25</v>
       </c>
@@ -10282,7 +11862,9 @@
       <c r="P184" s="3" t="n">
         <v>1763.5</v>
       </c>
-      <c r="Q184" s="3" t="inlineStr"/>
+      <c r="Q184" s="3" t="n">
+        <v>653.13</v>
+      </c>
       <c r="R184" s="3" t="n">
         <v>1793.4</v>
       </c>
@@ -10292,7 +11874,9 @@
       <c r="T184" s="3" t="n">
         <v>538.59</v>
       </c>
-      <c r="U184" s="3" t="inlineStr"/>
+      <c r="U184" s="3" t="n">
+        <v>3134</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
@@ -10316,7 +11900,9 @@
       <c r="G185" s="3" t="n">
         <v>987.85</v>
       </c>
-      <c r="H185" s="3" t="inlineStr"/>
+      <c r="H185" s="3" t="n">
+        <v>1138.8</v>
+      </c>
       <c r="I185" s="3" t="n">
         <v>315.28</v>
       </c>
@@ -10329,18 +11915,24 @@
       <c r="L185" s="3" t="n">
         <v>880.47</v>
       </c>
-      <c r="M185" s="3" t="inlineStr"/>
+      <c r="M185" s="3" t="n">
+        <v>1523.8</v>
+      </c>
       <c r="N185" s="3" t="n">
         <v>280</v>
       </c>
       <c r="O185" s="3" t="n">
         <v>625.1</v>
       </c>
-      <c r="P185" s="3" t="inlineStr"/>
+      <c r="P185" s="3" t="n">
+        <v>1788.5</v>
+      </c>
       <c r="Q185" s="3" t="n">
         <v>657.36</v>
       </c>
-      <c r="R185" s="3" t="inlineStr"/>
+      <c r="R185" s="3" t="n">
+        <v>1801.4</v>
+      </c>
       <c r="S185" s="3" t="n">
         <v>208.7</v>
       </c>
@@ -10355,34 +11947,66 @@
       <c r="A186" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="3" t="inlineStr"/>
+      <c r="B186" s="3" t="n">
+        <v>1004.8</v>
+      </c>
       <c r="C186" s="3" t="n">
         <v>666.42</v>
       </c>
-      <c r="D186" s="3" t="inlineStr"/>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
+      <c r="D186" s="3" t="n">
+        <v>322.23</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>481.87</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>97.628</v>
+      </c>
+      <c r="G186" s="3" t="n">
+        <v>993.41</v>
+      </c>
       <c r="H186" s="3" t="n">
         <v>1136.7</v>
       </c>
-      <c r="I186" s="3" t="inlineStr"/>
-      <c r="J186" s="3" t="inlineStr"/>
-      <c r="K186" s="3" t="inlineStr"/>
-      <c r="L186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="n">
+        <v>317.18</v>
+      </c>
+      <c r="J186" s="3" t="n">
+        <v>580.85</v>
+      </c>
+      <c r="K186" s="3" t="n">
+        <v>729.9</v>
+      </c>
+      <c r="L186" s="3" t="n">
+        <v>884.21</v>
+      </c>
       <c r="M186" s="3" t="n">
         <v>1519.3</v>
       </c>
-      <c r="N186" s="3" t="inlineStr"/>
-      <c r="O186" s="3" t="inlineStr"/>
-      <c r="P186" s="3" t="inlineStr"/>
-      <c r="Q186" s="3" t="inlineStr"/>
+      <c r="N186" s="3" t="n">
+        <v>282.01</v>
+      </c>
+      <c r="O186" s="3" t="n">
+        <v>627.5</v>
+      </c>
+      <c r="P186" s="3" t="n">
+        <v>1790.9</v>
+      </c>
+      <c r="Q186" s="3" t="n">
+        <v>660.21</v>
+      </c>
       <c r="R186" s="3" t="n">
         <v>1799.7</v>
       </c>
-      <c r="S186" s="3" t="inlineStr"/>
-      <c r="T186" s="3" t="inlineStr"/>
-      <c r="U186" s="3" t="inlineStr"/>
+      <c r="S186" s="3" t="n">
+        <v>209.86</v>
+      </c>
+      <c r="T186" s="3" t="n">
+        <v>545.0700000000001</v>
+      </c>
+      <c r="U186" s="3" t="n">
+        <v>3176.6</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="n">
@@ -10406,8 +12030,12 @@
       <c r="G187" s="4" t="n">
         <v>971.12</v>
       </c>
-      <c r="H187" s="4" t="inlineStr"/>
-      <c r="I187" s="4" t="inlineStr"/>
+      <c r="H187" s="4" t="n">
+        <v>992.83</v>
+      </c>
+      <c r="I187" s="4" t="n">
+        <v>309.71</v>
+      </c>
       <c r="J187" s="4" t="n">
         <v>563.38</v>
       </c>
@@ -10417,8 +12045,12 @@
       <c r="L187" s="4" t="n">
         <v>913.09</v>
       </c>
-      <c r="M187" s="4" t="inlineStr"/>
-      <c r="N187" s="4" t="inlineStr"/>
+      <c r="M187" s="4" t="n">
+        <v>1327.5</v>
+      </c>
+      <c r="N187" s="4" t="n">
+        <v>289.99</v>
+      </c>
       <c r="O187" s="4" t="n">
         <v>613.51</v>
       </c>
@@ -10428,7 +12060,9 @@
       <c r="Q187" s="4" t="n">
         <v>732.02</v>
       </c>
-      <c r="R187" s="4" t="inlineStr"/>
+      <c r="R187" s="4" t="n">
+        <v>1654.3</v>
+      </c>
       <c r="S187" s="4" t="n">
         <v>232.99</v>
       </c>
@@ -10446,7 +12080,9 @@
       <c r="B188" s="4" t="n">
         <v>975.6</v>
       </c>
-      <c r="C188" s="4" t="inlineStr"/>
+      <c r="C188" s="4" t="n">
+        <v>612.74</v>
+      </c>
       <c r="D188" s="4" t="n">
         <v>313.14</v>
       </c>
@@ -10533,7 +12169,9 @@
       <c r="J189" s="4" t="n">
         <v>562.6799999999999</v>
       </c>
-      <c r="K189" s="4" t="inlineStr"/>
+      <c r="K189" s="4" t="n">
+        <v>630.87</v>
+      </c>
       <c r="L189" s="4" t="n">
         <v>914.72</v>
       </c>
@@ -10546,7 +12184,9 @@
       <c r="O189" s="4" t="n">
         <v>613.15</v>
       </c>
-      <c r="P189" s="4" t="inlineStr"/>
+      <c r="P189" s="4" t="n">
+        <v>1648</v>
+      </c>
       <c r="Q189" s="4" t="n">
         <v>731.01</v>
       </c>
@@ -10568,7 +12208,9 @@
       <c r="B190" s="4" t="n">
         <v>987.26</v>
       </c>
-      <c r="C190" s="4" t="inlineStr"/>
+      <c r="C190" s="4" t="n">
+        <v>608.5</v>
+      </c>
       <c r="D190" s="4" t="n">
         <v>316.6</v>
       </c>
@@ -10611,7 +12253,9 @@
       <c r="Q190" s="4" t="n">
         <v>740.84</v>
       </c>
-      <c r="R190" s="4" t="inlineStr"/>
+      <c r="R190" s="4" t="n">
+        <v>1634.3</v>
+      </c>
       <c r="S190" s="4" t="n">
         <v>236.25</v>
       </c>
@@ -10626,67 +12270,127 @@
       <c r="A191" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="4" t="inlineStr"/>
+      <c r="B191" s="4" t="n">
+        <v>993.96</v>
+      </c>
       <c r="C191" s="4" t="n">
         <v>610.09</v>
       </c>
-      <c r="D191" s="4" t="inlineStr"/>
-      <c r="E191" s="4" t="inlineStr"/>
-      <c r="F191" s="4" t="inlineStr"/>
-      <c r="G191" s="4" t="inlineStr"/>
+      <c r="D191" s="4" t="n">
+        <v>318.37</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>492.96</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>90.629</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>986.6799999999999</v>
+      </c>
       <c r="H191" s="4" t="n">
         <v>985.97</v>
       </c>
-      <c r="I191" s="4" t="inlineStr"/>
-      <c r="J191" s="4" t="inlineStr"/>
-      <c r="K191" s="4" t="inlineStr"/>
-      <c r="L191" s="4" t="inlineStr"/>
+      <c r="I191" s="4" t="n">
+        <v>316.66</v>
+      </c>
+      <c r="J191" s="4" t="n">
+        <v>574</v>
+      </c>
+      <c r="K191" s="4" t="n">
+        <v>644.61</v>
+      </c>
+      <c r="L191" s="4" t="n">
+        <v>928.9</v>
+      </c>
       <c r="M191" s="4" t="n">
         <v>1317.6</v>
       </c>
-      <c r="N191" s="4" t="inlineStr"/>
-      <c r="O191" s="4" t="inlineStr"/>
-      <c r="P191" s="4" t="inlineStr"/>
-      <c r="Q191" s="4" t="inlineStr"/>
+      <c r="N191" s="4" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="O191" s="4" t="n">
+        <v>624.96</v>
+      </c>
+      <c r="P191" s="4" t="n">
+        <v>1675.3</v>
+      </c>
+      <c r="Q191" s="4" t="n">
+        <v>745.45</v>
+      </c>
       <c r="R191" s="4" t="n">
         <v>1643.1</v>
       </c>
-      <c r="S191" s="4" t="inlineStr"/>
-      <c r="T191" s="4" t="inlineStr"/>
+      <c r="S191" s="4" t="n">
+        <v>237.21</v>
+      </c>
+      <c r="T191" s="4" t="n">
+        <v>597.9400000000001</v>
+      </c>
       <c r="U191" s="4" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="3" t="inlineStr"/>
+      <c r="B192" s="3" t="n">
+        <v>973.83</v>
+      </c>
       <c r="C192" s="3" t="n">
         <v>617.5</v>
       </c>
-      <c r="D192" s="3" t="inlineStr"/>
-      <c r="E192" s="3" t="inlineStr"/>
-      <c r="F192" s="3" t="inlineStr"/>
-      <c r="G192" s="3" t="inlineStr"/>
+      <c r="D192" s="3" t="n">
+        <v>312.03</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>470.78</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>88.73099999999999</v>
+      </c>
+      <c r="G192" s="3" t="n">
+        <v>964.5700000000001</v>
+      </c>
       <c r="H192" s="3" t="n">
         <v>998.27</v>
       </c>
-      <c r="I192" s="3" t="inlineStr"/>
-      <c r="J192" s="3" t="inlineStr"/>
-      <c r="K192" s="3" t="inlineStr"/>
-      <c r="L192" s="3" t="inlineStr"/>
+      <c r="I192" s="3" t="n">
+        <v>310.03</v>
+      </c>
+      <c r="J192" s="3" t="n">
+        <v>552.75</v>
+      </c>
+      <c r="K192" s="3" t="n">
+        <v>632.22</v>
+      </c>
+      <c r="L192" s="3" t="n">
+        <v>901.88</v>
+      </c>
       <c r="M192" s="3" t="n">
         <v>1335.6</v>
       </c>
-      <c r="N192" s="3" t="inlineStr"/>
-      <c r="O192" s="3" t="inlineStr"/>
-      <c r="P192" s="3" t="inlineStr"/>
-      <c r="Q192" s="3" t="inlineStr"/>
+      <c r="N192" s="3" t="n">
+        <v>287.24</v>
+      </c>
+      <c r="O192" s="3" t="n">
+        <v>603.72</v>
+      </c>
+      <c r="P192" s="3" t="n">
+        <v>1637.7</v>
+      </c>
+      <c r="Q192" s="3" t="n">
+        <v>715.46</v>
+      </c>
       <c r="R192" s="3" t="n">
         <v>1655.3</v>
       </c>
       <c r="S192" s="3" t="inlineStr"/>
-      <c r="T192" s="3" t="inlineStr"/>
-      <c r="U192" s="3" t="inlineStr"/>
+      <c r="T192" s="3" t="n">
+        <v>571.62</v>
+      </c>
+      <c r="U192" s="3" t="n">
+        <v>3235.6</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
@@ -10695,7 +12399,9 @@
       <c r="B193" s="3" t="n">
         <v>968.35</v>
       </c>
-      <c r="C193" s="3" t="inlineStr"/>
+      <c r="C193" s="3" t="n">
+        <v>619.39</v>
+      </c>
       <c r="D193" s="3" t="n">
         <v>310.39</v>
       </c>
@@ -10708,7 +12414,9 @@
       <c r="G193" s="3" t="n">
         <v>959.71</v>
       </c>
-      <c r="H193" s="3" t="inlineStr"/>
+      <c r="H193" s="3" t="n">
+        <v>1002.3</v>
+      </c>
       <c r="I193" s="3" t="n">
         <v>308.25</v>
       </c>
@@ -10721,18 +12429,24 @@
       <c r="L193" s="3" t="n">
         <v>897.8</v>
       </c>
-      <c r="M193" s="3" t="inlineStr"/>
+      <c r="M193" s="3" t="n">
+        <v>1343.8</v>
+      </c>
       <c r="N193" s="3" t="n">
         <v>285.1</v>
       </c>
       <c r="O193" s="3" t="n">
         <v>599.8200000000001</v>
       </c>
-      <c r="P193" s="3" t="inlineStr"/>
+      <c r="P193" s="3" t="n">
+        <v>1637</v>
+      </c>
       <c r="Q193" s="3" t="n">
         <v>709.62</v>
       </c>
-      <c r="R193" s="3" t="inlineStr"/>
+      <c r="R193" s="3" t="n">
+        <v>1662.4</v>
+      </c>
       <c r="S193" s="3" t="n">
         <v>225.4</v>
       </c>
@@ -10815,7 +12529,9 @@
       <c r="B195" s="3" t="n">
         <v>960.09</v>
       </c>
-      <c r="C195" s="3" t="inlineStr"/>
+      <c r="C195" s="3" t="n">
+        <v>615.7</v>
+      </c>
       <c r="D195" s="3" t="n">
         <v>307.42</v>
       </c>
@@ -10843,7 +12559,9 @@
       <c r="L195" s="3" t="n">
         <v>890.46</v>
       </c>
-      <c r="M195" s="3" t="inlineStr"/>
+      <c r="M195" s="3" t="n">
+        <v>1333.7</v>
+      </c>
       <c r="N195" s="3" t="n">
         <v>283.17</v>
       </c>
@@ -10882,63 +12600,101 @@
       <c r="D196" s="3" t="n">
         <v>306.6</v>
       </c>
-      <c r="E196" s="3" t="inlineStr"/>
+      <c r="E196" s="3" t="n">
+        <v>459.59</v>
+      </c>
       <c r="F196" s="3" t="n">
         <v>86.95699999999999</v>
       </c>
-      <c r="G196" s="3" t="inlineStr"/>
+      <c r="G196" s="3" t="n">
+        <v>948.5700000000001</v>
+      </c>
       <c r="H196" s="3" t="n">
         <v>1001.6</v>
       </c>
       <c r="I196" s="3" t="n">
         <v>304.42</v>
       </c>
-      <c r="J196" s="3" t="inlineStr"/>
-      <c r="K196" s="3" t="inlineStr"/>
-      <c r="L196" s="3" t="inlineStr"/>
+      <c r="J196" s="3" t="n">
+        <v>540.84</v>
+      </c>
+      <c r="K196" s="3" t="n">
+        <v>621.79</v>
+      </c>
+      <c r="L196" s="3" t="n">
+        <v>886.04</v>
+      </c>
       <c r="M196" s="3" t="n">
         <v>1340.3</v>
       </c>
       <c r="N196" s="3" t="n">
         <v>281.73</v>
       </c>
-      <c r="O196" s="3" t="inlineStr"/>
+      <c r="O196" s="3" t="n">
+        <v>591.33</v>
+      </c>
       <c r="P196" s="3" t="n">
         <v>1611.5</v>
       </c>
-      <c r="Q196" s="3" t="inlineStr"/>
+      <c r="Q196" s="3" t="n">
+        <v>701.08</v>
+      </c>
       <c r="R196" s="3" t="n">
         <v>1659.8</v>
       </c>
-      <c r="S196" s="3" t="inlineStr"/>
-      <c r="T196" s="3" t="inlineStr"/>
-      <c r="U196" s="3" t="inlineStr"/>
+      <c r="S196" s="3" t="n">
+        <v>222.41</v>
+      </c>
+      <c r="T196" s="3" t="n">
+        <v>558.83</v>
+      </c>
+      <c r="U196" s="3" t="n">
+        <v>3178.1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="inlineStr"/>
+      <c r="B197" s="4" t="n">
+        <v>991.72</v>
+      </c>
       <c r="C197" s="4" t="n">
         <v>612.16</v>
       </c>
-      <c r="D197" s="4" t="inlineStr"/>
+      <c r="D197" s="4" t="n">
+        <v>317.63</v>
+      </c>
       <c r="E197" s="4" t="n">
         <v>484.29</v>
       </c>
-      <c r="F197" s="4" t="inlineStr"/>
-      <c r="G197" s="4" t="inlineStr"/>
+      <c r="F197" s="4" t="n">
+        <v>90.086</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>983.4400000000001</v>
+      </c>
       <c r="H197" s="4" t="n">
         <v>986.45</v>
       </c>
-      <c r="I197" s="4" t="inlineStr"/>
-      <c r="J197" s="4" t="inlineStr"/>
-      <c r="K197" s="4" t="inlineStr"/>
-      <c r="L197" s="4" t="inlineStr"/>
+      <c r="I197" s="4" t="n">
+        <v>315.73</v>
+      </c>
+      <c r="J197" s="4" t="n">
+        <v>566.1</v>
+      </c>
+      <c r="K197" s="4" t="n">
+        <v>639.6</v>
+      </c>
+      <c r="L197" s="4" t="n">
+        <v>927.71</v>
+      </c>
       <c r="M197" s="4" t="n">
         <v>1323.9</v>
       </c>
-      <c r="N197" s="4" t="inlineStr"/>
+      <c r="N197" s="4" t="n">
+        <v>294.11</v>
+      </c>
       <c r="O197" s="4" t="n">
         <v>618.92</v>
       </c>
@@ -10951,7 +12707,9 @@
       <c r="R197" s="4" t="n">
         <v>1641.1</v>
       </c>
-      <c r="S197" s="4" t="inlineStr"/>
+      <c r="S197" s="4" t="n">
+        <v>235.38</v>
+      </c>
       <c r="T197" s="4" t="n">
         <v>590.16</v>
       </c>
@@ -10975,7 +12733,9 @@
       <c r="E198" s="4" t="n">
         <v>482.71</v>
       </c>
-      <c r="F198" s="4" t="inlineStr"/>
+      <c r="F198" s="4" t="n">
+        <v>90.038</v>
+      </c>
       <c r="G198" s="4" t="n">
         <v>980.3</v>
       </c>
@@ -11001,7 +12761,9 @@
       <c r="O198" s="4" t="n">
         <v>617.79</v>
       </c>
-      <c r="P198" s="4" t="inlineStr"/>
+      <c r="P198" s="4" t="n">
+        <v>1678.1</v>
+      </c>
       <c r="Q198" s="4" t="n">
         <v>734.37</v>
       </c>
@@ -11029,7 +12791,9 @@
       <c r="D199" s="4" t="n">
         <v>313.86</v>
       </c>
-      <c r="E199" s="4" t="inlineStr"/>
+      <c r="E199" s="4" t="n">
+        <v>477.68</v>
+      </c>
       <c r="F199" s="4" t="n">
         <v>89</v>
       </c>
@@ -11048,15 +12812,21 @@
       <c r="K199" s="4" t="n">
         <v>635.8</v>
       </c>
-      <c r="L199" s="4" t="inlineStr"/>
+      <c r="L199" s="4" t="n">
+        <v>915.72</v>
+      </c>
       <c r="M199" s="4" t="n">
         <v>1322.7</v>
       </c>
       <c r="N199" s="4" t="n">
         <v>290.75</v>
       </c>
-      <c r="O199" s="4" t="inlineStr"/>
-      <c r="P199" s="4" t="inlineStr"/>
+      <c r="O199" s="4" t="n">
+        <v>610.28</v>
+      </c>
+      <c r="P199" s="4" t="n">
+        <v>1650.5</v>
+      </c>
       <c r="Q199" s="4" t="n">
         <v>728.72</v>
       </c>
@@ -11066,46 +12836,74 @@
       <c r="S199" s="4" t="n">
         <v>232.39</v>
       </c>
-      <c r="T199" s="4" t="inlineStr"/>
-      <c r="U199" s="4" t="inlineStr"/>
+      <c r="T199" s="4" t="n">
+        <v>581.4400000000001</v>
+      </c>
+      <c r="U199" s="4" t="n">
+        <v>3273.9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="4" t="inlineStr"/>
+      <c r="B200" s="4" t="n">
+        <v>977.13</v>
+      </c>
       <c r="C200" s="4" t="n">
         <v>613.04</v>
       </c>
-      <c r="D200" s="4" t="inlineStr"/>
-      <c r="E200" s="4" t="inlineStr"/>
+      <c r="D200" s="4" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>477.18</v>
+      </c>
       <c r="F200" s="4" t="n">
         <v>88.892</v>
       </c>
-      <c r="G200" s="4" t="inlineStr"/>
+      <c r="G200" s="4" t="n">
+        <v>972.8099999999999</v>
+      </c>
       <c r="H200" s="4" t="n">
         <v>990.99</v>
       </c>
-      <c r="I200" s="4" t="inlineStr"/>
-      <c r="J200" s="4" t="inlineStr"/>
+      <c r="I200" s="4" t="n">
+        <v>310.14</v>
+      </c>
+      <c r="J200" s="4" t="n">
+        <v>558.77</v>
+      </c>
       <c r="K200" s="4" t="n">
         <v>635.33</v>
       </c>
-      <c r="L200" s="4" t="inlineStr"/>
+      <c r="L200" s="4" t="n">
+        <v>915.21</v>
+      </c>
       <c r="M200" s="4" t="n">
         <v>1326.7</v>
       </c>
-      <c r="N200" s="4" t="inlineStr"/>
-      <c r="O200" s="4" t="inlineStr"/>
+      <c r="N200" s="4" t="n">
+        <v>289.37</v>
+      </c>
+      <c r="O200" s="4" t="n">
+        <v>610.3099999999999</v>
+      </c>
       <c r="P200" s="4" t="n">
         <v>1656.3</v>
       </c>
-      <c r="Q200" s="4" t="inlineStr"/>
+      <c r="Q200" s="4" t="n">
+        <v>728.27</v>
+      </c>
       <c r="R200" s="4" t="n">
         <v>1643.3</v>
       </c>
-      <c r="S200" s="4" t="inlineStr"/>
-      <c r="T200" s="4" t="inlineStr"/>
+      <c r="S200" s="4" t="n">
+        <v>231.35</v>
+      </c>
+      <c r="T200" s="4" t="n">
+        <v>581.16</v>
+      </c>
       <c r="U200" s="4" t="n">
         <v>3283.4</v>
       </c>
@@ -11124,7 +12922,9 @@
       <c r="E201" s="4" t="n">
         <v>483.32</v>
       </c>
-      <c r="F201" s="4" t="inlineStr"/>
+      <c r="F201" s="4" t="n">
+        <v>88.554</v>
+      </c>
       <c r="G201" s="4" t="n">
         <v>978.3</v>
       </c>
@@ -11135,7 +12935,9 @@
       <c r="J201" s="4" t="n">
         <v>564.3200000000001</v>
       </c>
-      <c r="K201" s="4" t="inlineStr"/>
+      <c r="K201" s="4" t="n">
+        <v>631.1799999999999</v>
+      </c>
       <c r="L201" s="4" t="n">
         <v>924.74</v>
       </c>
@@ -11149,13 +12951,21 @@
       <c r="P201" s="4" t="n">
         <v>1658.3</v>
       </c>
-      <c r="Q201" s="4" t="inlineStr"/>
-      <c r="R201" s="4" t="inlineStr"/>
+      <c r="Q201" s="4" t="n">
+        <v>741.45</v>
+      </c>
+      <c r="R201" s="4" t="n">
+        <v>1636.6</v>
+      </c>
       <c r="S201" s="4" t="n">
         <v>235.22</v>
       </c>
-      <c r="T201" s="4" t="inlineStr"/>
-      <c r="U201" s="4" t="inlineStr"/>
+      <c r="T201" s="4" t="n">
+        <v>591.96</v>
+      </c>
+      <c r="U201" s="4" t="n">
+        <v>3339.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
